--- a/sli_measures.xlsx
+++ b/sli_measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa0eda03202f8011/BI/Repo/asc-localities-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_CF605FDF8F79A8D366075C52F37BD2724A4BF33F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD9CC414-47E1-4892-A70C-04C4932C3347}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_CF605FDF8F79A8D366075C52F37BD2724A4BF33F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6386002F-9BCF-435D-8807-A1E74F4DA733}"/>
   <bookViews>
-    <workbookView xWindow="-57120" yWindow="-120" windowWidth="28440" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="-108" windowWidth="22704" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="265">
   <si>
     <t>theme</t>
   </si>
@@ -1208,8 +1208,8 @@
   <dimension ref="A1:C260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B272" sqref="B272"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J224" sqref="J224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -1878,7 +1878,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>3</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>3</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>3</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>3</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>3</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>3</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>3</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>3</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>3</v>
       </c>
@@ -2604,7 +2604,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>3</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>3</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>3</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>3</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>3</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>3</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>3</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>3</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>184</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>184</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>184</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>184</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>184</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>184</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>184</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>184</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>184</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>184</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>184</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>184</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>184</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>184</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>184</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>184</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>184</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>184</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>184</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>184</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>184</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>184</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>184</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>184</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>184</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>184</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>184</v>
       </c>
@@ -2924,15 +2924,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>184</v>
       </c>
       <c r="B213" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>184</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>184</v>
       </c>
@@ -2956,7 +2959,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>184</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>184</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>184</v>
       </c>
@@ -2980,7 +2983,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>184</v>
       </c>
@@ -2988,7 +2991,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>184</v>
       </c>
@@ -2996,7 +2999,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>184</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>184</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>184</v>
       </c>
@@ -3020,7 +3023,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>184</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>184</v>
       </c>
@@ -3044,7 +3047,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>184</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>184</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>184</v>
       </c>
@@ -3068,7 +3071,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>184</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>184</v>
       </c>
@@ -3084,7 +3087,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>184</v>
       </c>
@@ -3092,7 +3095,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>184</v>
       </c>
@@ -3100,7 +3103,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>184</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>184</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>184</v>
       </c>
@@ -3124,7 +3127,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>184</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>184</v>
       </c>
@@ -3140,7 +3143,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>184</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>184</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>184</v>
       </c>
@@ -3164,7 +3167,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>184</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>184</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>184</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>184</v>
       </c>
@@ -3196,7 +3199,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>184</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>184</v>
       </c>
@@ -3212,7 +3215,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>184</v>
       </c>
@@ -3220,7 +3223,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>184</v>
       </c>
@@ -3228,7 +3231,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>184</v>
       </c>
@@ -3236,7 +3239,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>184</v>
       </c>
@@ -3244,7 +3247,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>184</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>184</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>184</v>
       </c>
@@ -3268,7 +3271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>184</v>
       </c>
@@ -3276,7 +3279,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>184</v>
       </c>
@@ -3284,7 +3287,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>184</v>
       </c>
@@ -3292,7 +3295,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>184</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>184</v>
       </c>
@@ -3312,7 +3315,7 @@
   <autoFilter ref="A1:C260" xr:uid="{EF5AA1A9-BF36-4E01-8C1C-DF384EC058C4}">
     <filterColumn colId="0">
       <filters>
-        <filter val="population"/>
+        <filter val="deprivation"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/sli_measures.xlsx
+++ b/sli_measures.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa0eda03202f8011/BI/Repo/asc-localities-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_CF605FDF8F79A8D366075C52F37BD2724A4BF33F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6386002F-9BCF-435D-8807-A1E74F4DA733}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_AE351DC08F79A8D366075C52F37BD2727A472C54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0B922AA-8196-47A6-972A-506837EED5F6}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="-108" windowWidth="22704" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57120" yWindow="-120" windowWidth="28440" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$386</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="392">
   <si>
     <t>theme</t>
   </si>
@@ -34,6 +34,627 @@
     <t>include</t>
   </si>
   <si>
+    <t>deprivation</t>
+  </si>
+  <si>
+    <t>Children 0-19 in absolute low-income couple families (as % of all in absolute low income families)</t>
+  </si>
+  <si>
+    <t>Children 0-19 in absolute low-income in-work families (as % of all in absolute low income families)</t>
+  </si>
+  <si>
+    <t>Children 0-19 in absolute low-income lone parent families (as % of all in absolute low income families)</t>
+  </si>
+  <si>
+    <t>Children 0-19 in absolute low-income out of work families (as % of all in absolute low income families)</t>
+  </si>
+  <si>
+    <t>Children 0-19 in relative low-income couple families (as % of all in relative low income families)</t>
+  </si>
+  <si>
+    <t>Children 0-19 in relative low-income in-work families (as % of all in relative low income families)</t>
+  </si>
+  <si>
+    <t>Children 0-19 in relative low-income lone parent families (as % of all in relative low income families)</t>
+  </si>
+  <si>
+    <t>Children 0-19 in relative low-income out of work families (as % of all in relative low income families)</t>
+  </si>
+  <si>
+    <t>Children aged 0-15 in absolute low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 0-15 in poverty</t>
+  </si>
+  <si>
+    <t>Children aged 0-15 in relative low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 0-19 in absolute low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 0-19 in poverty</t>
+  </si>
+  <si>
+    <t>Children aged 0-19 in relative low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 0-4 in absolute low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 0-4 in poverty</t>
+  </si>
+  <si>
+    <t>Children aged 0-4 in relative low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 11-15 in absolute low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 11-15 in poverty</t>
+  </si>
+  <si>
+    <t>Children aged 11-15 in relative low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 16-19 in absolute low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 16-19 in poverty</t>
+  </si>
+  <si>
+    <t>Children aged 16-19 in relative low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 5-10 in absolute low-income families</t>
+  </si>
+  <si>
+    <t>Children aged 5-10 in poverty</t>
+  </si>
+  <si>
+    <t>Children aged 5-10 in relative low-income families</t>
+  </si>
+  <si>
+    <t>Food Vulnerability Index Score</t>
+  </si>
+  <si>
+    <t>Hardship Fund Vulnerability Index Score</t>
+  </si>
+  <si>
+    <t>Households in Fuel Poverty</t>
+  </si>
+  <si>
+    <t>Households in poverty</t>
+  </si>
+  <si>
+    <t>Index of Multiple Deprivation (IMD) 2019 Rank</t>
+  </si>
+  <si>
+    <t>Index of Multiple Deprivation 2019 (IMD) Score</t>
+  </si>
+  <si>
+    <t>IoD 2019 Acute morbidity indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Adult Skills Sub-domain Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Adult skills and English language proficiency indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Air quality indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Barriers to Housing and Services Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Benzene (component of air quality indicator)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Children and Young People Sub-domain Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Comparative illness and disability ratio indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Crime Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Education, Skills and Training Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Employment Score (rate)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Entry to higher education indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Geographical Barriers Sub-domain Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Health Deprivation and Disability Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Homelessness indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Household overcrowding indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Houses without central heating indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Housing affordability indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Housing in poor condition indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Income Deprivation Affecting Children Index (IDACI) Score (rate)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Income Deprivation Affecting Older People (IDAOPI) Score (rate)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Income Score (rate)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Indoors Sub-domain Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Living Environment Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Mood and anxiety disorders indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Nitrogen dioxide (component of air quality indicator)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Outdoors Sub-domain Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Owner-occupation affordability (component of housing affordability indicator)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Particulates (component of air quality indicator)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Private rental affordability (component of housing affordability indicator)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Road distance to a GP surgery indicator (km)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Road distance to a post office indicator (km)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Road distance to a primary school indicator (km)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Road distance to general store or supermarket indicator (km)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Road traffic accidents indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Staying on in education post 16 indicator</t>
+  </si>
+  <si>
+    <t>IoD 2019 Sulphur dioxide (component of air quality indicator)</t>
+  </si>
+  <si>
+    <t>IoD 2019 Wider Barriers Sub-domain Rank</t>
+  </si>
+  <si>
+    <t>IoD 2019 Years of potential life lost indicator</t>
+  </si>
+  <si>
+    <t>Mortgage debt per household</t>
+  </si>
+  <si>
+    <t>Net annual household income estimate</t>
+  </si>
+  <si>
+    <t>Net annual household income estimate after housing costs</t>
+  </si>
+  <si>
+    <t>Net annual household income estimate before housing costs</t>
+  </si>
+  <si>
+    <t>Percentage of children in poverty (after housing costs)</t>
+  </si>
+  <si>
+    <t>Personal debt (unsecured loans) per person aged 18+</t>
+  </si>
+  <si>
+    <t>Social benefits as a percentage of total household income</t>
+  </si>
+  <si>
+    <t>Total annual household income estimate</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>Adults who are physically active (modelled MSOA estimates)  (2016/17)</t>
+  </si>
+  <si>
+    <t>Adults who are physically active (modelled MSOA estimates) (2017/18)</t>
+  </si>
+  <si>
+    <t>Adults who are physically active (modelled MSOA estimates) (2018/19)</t>
+  </si>
+  <si>
+    <t>Adults who are physically inactive (modelled MSOA estimates)  (2016/17)</t>
+  </si>
+  <si>
+    <t>Adults who are physically inactive (modelled MSOA estimates) (2017/18)</t>
+  </si>
+  <si>
+    <t>Adults who are physically inactive (modelled MSOA estimates) (2018/19)</t>
+  </si>
+  <si>
+    <t>Asthma prevalence</t>
+  </si>
+  <si>
+    <t>Atrial Fibrillation prevalence</t>
+  </si>
+  <si>
+    <t>Average anxiety score (where 0 is 'not at all anxious' and 10 is 'completely anxious')</t>
+  </si>
+  <si>
+    <t>Average happiness score (where 0 is 'not at all happy' and 10 is 'completely happy')</t>
+  </si>
+  <si>
+    <t>Average life satisfaction score (where 0 is 'not at all satisfied' and 10 is 'completely satisfied')</t>
+  </si>
+  <si>
+    <t>Average worthwhile score (where 0 is 'not at all worthwhile' and 10 is 'completely worthwhile')</t>
+  </si>
+  <si>
+    <t>Bad health</t>
+  </si>
+  <si>
+    <t>Binge drinking</t>
+  </si>
+  <si>
+    <t>COPD prevalence</t>
+  </si>
+  <si>
+    <t>COVID-19 vulnerability index (MSOA Level)</t>
+  </si>
+  <si>
+    <t>Cancer incidence</t>
+  </si>
+  <si>
+    <t>Cancer prevalence (diagnosis since 2003)</t>
+  </si>
+  <si>
+    <t>Cardiovascular Disease prevalence</t>
+  </si>
+  <si>
+    <t>Chronic Kidney Disease prevalence</t>
+  </si>
+  <si>
+    <t>Coronary Heart Disease prevalence</t>
+  </si>
+  <si>
+    <t>Day-to-day activities limited a little</t>
+  </si>
+  <si>
+    <t>Day-to-day activities limited a little: Age 16 to 64</t>
+  </si>
+  <si>
+    <t>Day-to-day activities limited a lot</t>
+  </si>
+  <si>
+    <t>Day-to-day activities limited a lot: Age 16 to 64</t>
+  </si>
+  <si>
+    <t>Deaths (all causes)</t>
+  </si>
+  <si>
+    <t>Deaths all ages, circulatory disease</t>
+  </si>
+  <si>
+    <t>Deaths all ages, coronary heart disease (CHD)</t>
+  </si>
+  <si>
+    <t>Deaths all ages, respiratory disease</t>
+  </si>
+  <si>
+    <t>Deaths all ages, stroke</t>
+  </si>
+  <si>
+    <t>Deaths from cancer</t>
+  </si>
+  <si>
+    <t>Deaths under 65, all causes</t>
+  </si>
+  <si>
+    <t>Deaths under 75, all cancers</t>
+  </si>
+  <si>
+    <t>Deaths under 75, all causes</t>
+  </si>
+  <si>
+    <t>Deaths under 75, circulatory disease</t>
+  </si>
+  <si>
+    <t>Deaths under 75, coronary heart disease (CHD)</t>
+  </si>
+  <si>
+    <t>Dementia prevalence</t>
+  </si>
+  <si>
+    <t>Depression prevalence</t>
+  </si>
+  <si>
+    <t>Diabetes prevalence</t>
+  </si>
+  <si>
+    <t>Elective admissions (knee replacement)</t>
+  </si>
+  <si>
+    <t>Elective hospital admissions</t>
+  </si>
+  <si>
+    <t>Elective hospital admissions (coronary heart disease)</t>
+  </si>
+  <si>
+    <t>Elective hospital admissions (hip replacement)</t>
+  </si>
+  <si>
+    <t>Emergency Admissions for injury in children aged 15-24</t>
+  </si>
+  <si>
+    <t>Emergency Admissions for injury in children under 15</t>
+  </si>
+  <si>
+    <t>Emergency Admissions for injury in children under 5</t>
+  </si>
+  <si>
+    <t>Emergency hospital admissions</t>
+  </si>
+  <si>
+    <t>Emergency hospital admissions (coronary heart disease)</t>
+  </si>
+  <si>
+    <t>Emergency hospital admissions, Chronic Obstructive Pulmonary Disease (COPD)</t>
+  </si>
+  <si>
+    <t>Emergency hospital admissions, Myocardial Infarction</t>
+  </si>
+  <si>
+    <t>Emergency hospital admissions, Stroke</t>
+  </si>
+  <si>
+    <t>Emergency hospital admissions, hip fracture in 65+</t>
+  </si>
+  <si>
+    <t>Epilepsy prevalence</t>
+  </si>
+  <si>
+    <t>Fair health</t>
+  </si>
+  <si>
+    <t>Female healthy life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Female life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Fertility rate</t>
+  </si>
+  <si>
+    <t>Good health</t>
+  </si>
+  <si>
+    <t>Grants issued in response to COVID-19</t>
+  </si>
+  <si>
+    <t>Healthy eating</t>
+  </si>
+  <si>
+    <t>Heart Failure prevalence</t>
+  </si>
+  <si>
+    <t>High Blood Pressure prevalence</t>
+  </si>
+  <si>
+    <t>Hospital admissions for alcohol attributable harm</t>
+  </si>
+  <si>
+    <t>Hospital stays for intentional self harm</t>
+  </si>
+  <si>
+    <t>Incidence of breast cancer</t>
+  </si>
+  <si>
+    <t>Incidence of colorectal cancer</t>
+  </si>
+  <si>
+    <t>Incidence of lung cancer</t>
+  </si>
+  <si>
+    <t>Incidence of prostate cancer</t>
+  </si>
+  <si>
+    <t>Learning Disabilities prevalence</t>
+  </si>
+  <si>
+    <t>Live births</t>
+  </si>
+  <si>
+    <t>Low birth weight</t>
+  </si>
+  <si>
+    <t>Male healthy life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Male life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Modelled prevalence of people aged 15 who are regular or occasional smokers</t>
+  </si>
+  <si>
+    <t>Modelled prevalence of people aged 15 who are regular smokers</t>
+  </si>
+  <si>
+    <t>Modelled prevalence of people aged 15 who have never smoked</t>
+  </si>
+  <si>
+    <t>Obese adults</t>
+  </si>
+  <si>
+    <t>Obese children in reception year</t>
+  </si>
+  <si>
+    <t>Obese children in year 6</t>
+  </si>
+  <si>
+    <t>Obesity prevalence</t>
+  </si>
+  <si>
+    <t>One person in household with a long-term health problem or disability: No dependent children</t>
+  </si>
+  <si>
+    <t>One person in household with a long-term health problem or disability: With dependent children</t>
+  </si>
+  <si>
+    <t>Osteoporosis prevalence</t>
+  </si>
+  <si>
+    <t>Overweight or obese children in reception year</t>
+  </si>
+  <si>
+    <t>Overweight or obese children in year 6</t>
+  </si>
+  <si>
+    <t>Palliative Care prevalence</t>
+  </si>
+  <si>
+    <t>People over the age of 65 with bad or very bad health</t>
+  </si>
+  <si>
+    <t>People who participate in sport and physical activity at least twice in the last 28 days (2016/17)</t>
+  </si>
+  <si>
+    <t>People who participate in sport and physical activity at least twice in the last 28 days (2017/18)</t>
+  </si>
+  <si>
+    <t>People who participate in sport and physical activity at least twice in the last 28 days (2018/19)</t>
+  </si>
+  <si>
+    <t>People with a limiting long-term illness (aged 16-64)</t>
+  </si>
+  <si>
+    <t>People with a limiting long-term illness (aged 65+)</t>
+  </si>
+  <si>
+    <t>People with a limiting long-term illness aged 0-15</t>
+  </si>
+  <si>
+    <t>People with a limiting long-term illness aged 16-24</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 45+ with hip osteoarthritis</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 45+ with knee osteoarthritis</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 45+ with severe hip osteoarthritis</t>
+  </si>
+  <si>
+    <t>Percentage of people aged 45+ with severe knee osteoarthritis</t>
+  </si>
+  <si>
+    <t>Percentage of people with back pain</t>
+  </si>
+  <si>
+    <t>Percentage of people with severe back pain</t>
+  </si>
+  <si>
+    <t>Probability of loneliness for those aged 65 and over</t>
+  </si>
+  <si>
+    <t>Proportion of people with high happiness (happiness score of 7-8 where 0 is 'not at all happy' and 10 is 'completely happy')</t>
+  </si>
+  <si>
+    <t>Proportion of people with high life satisfaction (life satisfaction score of 7-8 where 0 is 'not at all satisfied' and 10 is 'completely satisfied')</t>
+  </si>
+  <si>
+    <t>Proportion of people with high sense of self-worth (worthwhile score of 7-8 where 0 is 'not at all worthwhile' and 10 is 'completely worthwhile')</t>
+  </si>
+  <si>
+    <t>Proportion of people with low anxiety (anxiety score of 2-3 where 0 is 'not at all anxious' and 10 is 'completely anxious')</t>
+  </si>
+  <si>
+    <t>Proportion of people with low happiness (happiness score of 0-4 where 0 is 'not at all happy' and 10 is 'completely happy')</t>
+  </si>
+  <si>
+    <t>Proportion of people with low life satisfaction (life satisfaction score of 0-4 where 0 is 'not at all satisfied' and 10 is 'completely satisfied')</t>
+  </si>
+  <si>
+    <t>Proportion of people with low sense of self-worth (worthwhile score of 0-4 where 0 is 'not at all worthwhile' and 10 is 'completely worthwhile')</t>
+  </si>
+  <si>
+    <t>Proportion of people with medium anxiety (anxiety score of 4-5 where 0 is 'not at all anxious' and 10 is 'completely anxious')</t>
+  </si>
+  <si>
+    <t>Proportion of people with medium happiness (happiness score of 5-6 where 0 is 'not at all happy' and 10 is 'completely happy')</t>
+  </si>
+  <si>
+    <t>Proportion of people with medium life satisfaction (life satisfaction score of 5-6 where 0 is 'not at all satisfied' and 10 is 'completely satisfied')</t>
+  </si>
+  <si>
+    <t>Proportion of people with medium sense of self-worth (worthwhile score of 5-6 where 0 is 'not at all worthwhile' and 10 is 'completely worthwhile')</t>
+  </si>
+  <si>
+    <t>Proportion of people with very high happiness (happiness score of 9-10 where 0 is 'not at all happy' and 10 is 'completely happy')</t>
+  </si>
+  <si>
+    <t>Proportion of people with very high life satisfaction (life satisfaction score of 9-10 where 0 is 'not at all satisfied' and 10 is 'completely satisfied')</t>
+  </si>
+  <si>
+    <t>Proportion of people with very high sense of self-worth (worthwhile score of 9-10 where 0 is 'not at all worthwhile' and 10 is 'completely worthwhile')</t>
+  </si>
+  <si>
+    <t>Proportion of people with very low anxiety (anxiety score of 0-1 where 0 is 'not at all anxious' and 10 is 'completely anxious')</t>
+  </si>
+  <si>
+    <t>Rate of A&amp;E attendance for children under 5</t>
+  </si>
+  <si>
+    <t>Rate of emergency hospital admissions for children under 5</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis prevalence</t>
+  </si>
+  <si>
+    <t>Road accident casualty rate</t>
+  </si>
+  <si>
+    <t>Serious Mental Illness prevalence</t>
+  </si>
+  <si>
+    <t>Small Area Mental Health Index</t>
+  </si>
+  <si>
+    <t>Stroke and Transient Ischaemic Attack prevalence</t>
+  </si>
+  <si>
+    <t>Very bad health</t>
+  </si>
+  <si>
+    <t>Very good health</t>
+  </si>
+  <si>
+    <t>Schizophrenia, bipolar disorder and psychoses prevalence</t>
+  </si>
+  <si>
     <t>population</t>
   </si>
   <si>
@@ -575,246 +1196,6 @@
   </si>
   <si>
     <t>Aged 0-25</t>
-  </si>
-  <si>
-    <t>deprivation</t>
-  </si>
-  <si>
-    <t>Children 0-19 in absolute low-income couple families (as % of all in absolute low income families)</t>
-  </si>
-  <si>
-    <t>Children 0-19 in absolute low-income in-work families (as % of all in absolute low income families)</t>
-  </si>
-  <si>
-    <t>Children 0-19 in absolute low-income lone parent families (as % of all in absolute low income families)</t>
-  </si>
-  <si>
-    <t>Children 0-19 in absolute low-income out of work families (as % of all in absolute low income families)</t>
-  </si>
-  <si>
-    <t>Children 0-19 in relative low-income couple families (as % of all in relative low income families)</t>
-  </si>
-  <si>
-    <t>Children 0-19 in relative low-income in-work families (as % of all in relative low income families)</t>
-  </si>
-  <si>
-    <t>Children 0-19 in relative low-income lone parent families (as % of all in relative low income families)</t>
-  </si>
-  <si>
-    <t>Children 0-19 in relative low-income out of work families (as % of all in relative low income families)</t>
-  </si>
-  <si>
-    <t>Children aged 0-15 in absolute low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 0-15 in poverty</t>
-  </si>
-  <si>
-    <t>Children aged 0-15 in relative low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 0-19 in absolute low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 0-19 in poverty</t>
-  </si>
-  <si>
-    <t>Children aged 0-19 in relative low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 0-4 in absolute low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 0-4 in poverty</t>
-  </si>
-  <si>
-    <t>Children aged 0-4 in relative low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 11-15 in absolute low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 11-15 in poverty</t>
-  </si>
-  <si>
-    <t>Children aged 11-15 in relative low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 16-19 in absolute low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 16-19 in poverty</t>
-  </si>
-  <si>
-    <t>Children aged 16-19 in relative low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 5-10 in absolute low-income families</t>
-  </si>
-  <si>
-    <t>Children aged 5-10 in poverty</t>
-  </si>
-  <si>
-    <t>Children aged 5-10 in relative low-income families</t>
-  </si>
-  <si>
-    <t>Food Vulnerability Index Score</t>
-  </si>
-  <si>
-    <t>Hardship Fund Vulnerability Index Score</t>
-  </si>
-  <si>
-    <t>Households in Fuel Poverty</t>
-  </si>
-  <si>
-    <t>Households in poverty</t>
-  </si>
-  <si>
-    <t>Index of Multiple Deprivation (IMD) 2019 Rank</t>
-  </si>
-  <si>
-    <t>Index of Multiple Deprivation 2019 (IMD) Score</t>
-  </si>
-  <si>
-    <t>IoD 2019 Acute morbidity indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Adult Skills Sub-domain Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Adult skills and English language proficiency indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Air quality indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Barriers to Housing and Services Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Benzene (component of air quality indicator)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Children and Young People Sub-domain Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Comparative illness and disability ratio indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Crime Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Education, Skills and Training Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Employment Score (rate)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Entry to higher education indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Geographical Barriers Sub-domain Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Health Deprivation and Disability Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Homelessness indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Household overcrowding indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Houses without central heating indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Housing affordability indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Housing in poor condition indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Income Deprivation Affecting Children Index (IDACI) Score (rate)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Income Deprivation Affecting Older People (IDAOPI) Score (rate)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Income Score (rate)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Indoors Sub-domain Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Living Environment Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Mood and anxiety disorders indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Nitrogen dioxide (component of air quality indicator)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Outdoors Sub-domain Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Owner-occupation affordability (component of housing affordability indicator)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Particulates (component of air quality indicator)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Private rental affordability (component of housing affordability indicator)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Road distance to a GP surgery indicator (km)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Road distance to a post office indicator (km)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Road distance to a primary school indicator (km)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Road distance to general store or supermarket indicator (km)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Road traffic accidents indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Staying on in education post 16 indicator</t>
-  </si>
-  <si>
-    <t>IoD 2019 Sulphur dioxide (component of air quality indicator)</t>
-  </si>
-  <si>
-    <t>IoD 2019 Wider Barriers Sub-domain Rank</t>
-  </si>
-  <si>
-    <t>IoD 2019 Years of potential life lost indicator</t>
-  </si>
-  <si>
-    <t>Mortgage debt per household</t>
-  </si>
-  <si>
-    <t>Net annual household income estimate</t>
-  </si>
-  <si>
-    <t>Net annual household income estimate after housing costs</t>
-  </si>
-  <si>
-    <t>Net annual household income estimate before housing costs</t>
-  </si>
-  <si>
-    <t>Percentage of children in poverty (after housing costs)</t>
-  </si>
-  <si>
-    <t>Personal debt (unsecured loans) per person aged 18+</t>
-  </si>
-  <si>
-    <t>Social benefits as a percentage of total household income</t>
-  </si>
-  <si>
-    <t>Total annual household income estimate</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1204,19 +1585,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C260"/>
+  <dimension ref="A1:C386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J224" sqref="J224"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="91.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="133.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1230,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1238,7 +1618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1246,7 +1626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1254,7 +1634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1270,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -1286,7 +1666,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1294,7 +1674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1690,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1326,7 +1706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1334,7 +1714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1350,7 +1730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1366,7 +1746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1374,7 +1754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1762,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1390,7 +1770,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1398,7 +1778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1414,7 +1794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1422,7 +1802,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1818,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1454,7 +1834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1462,7 +1842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1470,23 +1850,29 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1494,7 +1880,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1502,7 +1888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1510,7 +1896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1518,7 +1904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1526,7 +1912,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +1920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1542,7 +1928,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1550,7 +1936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1558,7 +1944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1952,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1574,7 +1960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1582,7 +1968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1590,7 +1976,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1598,7 +1984,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -1614,7 +2000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -1622,7 +2008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +2016,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -1638,7 +2024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -1646,7 +2032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +2040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -1662,7 +2048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +2056,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -1678,7 +2064,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -1686,7 +2072,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -1694,7 +2080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -1702,7 +2088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +2096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -1718,7 +2104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +2112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -1734,7 +2120,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -1742,7 +2128,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -1750,7 +2136,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -1758,7 +2144,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1766,7 +2152,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -1774,7 +2160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -1782,7 +2168,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +2176,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1798,7 +2184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -1806,7 +2192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -1814,7 +2200,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -1822,7 +2208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -1830,7 +2216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +2224,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -1846,7 +2232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -1854,7 +2240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -1862,823 +2248,823 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+      <c r="C96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
-      </c>
-      <c r="C157" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="C167" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
-      </c>
-      <c r="C170" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B182" t="s">
         <v>185</v>
@@ -2686,7 +3072,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B183" t="s">
         <v>186</v>
@@ -2694,7 +3080,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B184" t="s">
         <v>187</v>
@@ -2702,7 +3088,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B185" t="s">
         <v>188</v>
@@ -2710,7 +3096,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B186" t="s">
         <v>189</v>
@@ -2718,7 +3104,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B187" t="s">
         <v>190</v>
@@ -2726,7 +3112,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B188" t="s">
         <v>191</v>
@@ -2734,7 +3120,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B189" t="s">
         <v>192</v>
@@ -2742,7 +3128,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B190" t="s">
         <v>193</v>
@@ -2750,7 +3136,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B191" t="s">
         <v>194</v>
@@ -2758,7 +3144,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B192" t="s">
         <v>195</v>
@@ -2766,7 +3152,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B193" t="s">
         <v>196</v>
@@ -2774,7 +3160,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B194" t="s">
         <v>197</v>
@@ -2782,7 +3168,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B195" t="s">
         <v>198</v>
@@ -2790,7 +3176,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B196" t="s">
         <v>199</v>
@@ -2798,7 +3184,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B197" t="s">
         <v>200</v>
@@ -2806,7 +3192,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B198" t="s">
         <v>201</v>
@@ -2814,7 +3200,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B199" t="s">
         <v>202</v>
@@ -2822,7 +3208,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B200" t="s">
         <v>203</v>
@@ -2830,7 +3216,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B201" t="s">
         <v>204</v>
@@ -2838,7 +3224,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B202" t="s">
         <v>205</v>
@@ -2846,7 +3232,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B203" t="s">
         <v>206</v>
@@ -2854,7 +3240,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B204" t="s">
         <v>207</v>
@@ -2862,7 +3248,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B205" t="s">
         <v>208</v>
@@ -2870,7 +3256,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="B206" t="s">
         <v>209</v>
@@ -2878,447 +3264,1452 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B208" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
-      </c>
-      <c r="C213" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B214" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B216" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B217" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B218" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B219" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B220" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B221" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B222" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B223" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B226" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B227" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B228" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B230" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B231" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B232" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B233" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B234" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B235" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B236" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B237" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B238" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B239" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B241" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B242" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B243" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B244" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B245" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B246" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B248" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B250" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B251" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B252" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B253" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B254" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B255" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B256" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B257" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B260" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>210</v>
+      </c>
+      <c r="B261" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>210</v>
+      </c>
+      <c r="B262" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>210</v>
+      </c>
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>210</v>
+      </c>
+      <c r="B264" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>210</v>
+      </c>
+      <c r="B265" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>210</v>
+      </c>
+      <c r="B266" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>210</v>
+      </c>
+      <c r="B267" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>210</v>
+      </c>
+      <c r="B268" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>210</v>
+      </c>
+      <c r="B269" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>210</v>
+      </c>
+      <c r="B270" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>210</v>
+      </c>
+      <c r="B271" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>210</v>
+      </c>
+      <c r="B272" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>210</v>
+      </c>
+      <c r="B273" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>210</v>
+      </c>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>210</v>
+      </c>
+      <c r="B275" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>210</v>
+      </c>
+      <c r="B276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>210</v>
+      </c>
+      <c r="B277" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>210</v>
+      </c>
+      <c r="B278" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>210</v>
+      </c>
+      <c r="B279" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>210</v>
+      </c>
+      <c r="B280" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>210</v>
+      </c>
+      <c r="B281" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>210</v>
+      </c>
+      <c r="B282" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>210</v>
+      </c>
+      <c r="B283" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>210</v>
+      </c>
+      <c r="B284" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>210</v>
+      </c>
+      <c r="B285" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>210</v>
+      </c>
+      <c r="B286" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>210</v>
+      </c>
+      <c r="B287" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>210</v>
+      </c>
+      <c r="B288" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>210</v>
+      </c>
+      <c r="B289" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>210</v>
+      </c>
+      <c r="B290" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>210</v>
+      </c>
+      <c r="B291" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>210</v>
+      </c>
+      <c r="B292" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>210</v>
+      </c>
+      <c r="B293" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>210</v>
+      </c>
+      <c r="B294" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>210</v>
+      </c>
+      <c r="B295" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>210</v>
+      </c>
+      <c r="B296" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>210</v>
+      </c>
+      <c r="B297" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>210</v>
+      </c>
+      <c r="B298" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>210</v>
+      </c>
+      <c r="B299" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>210</v>
+      </c>
+      <c r="B300" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>210</v>
+      </c>
+      <c r="B301" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>210</v>
+      </c>
+      <c r="B302" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>210</v>
+      </c>
+      <c r="B303" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>210</v>
+      </c>
+      <c r="B304" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>210</v>
+      </c>
+      <c r="B305" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>210</v>
+      </c>
+      <c r="B306" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>210</v>
+      </c>
+      <c r="B307" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>210</v>
+      </c>
+      <c r="B308" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>210</v>
+      </c>
+      <c r="B309" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>210</v>
+      </c>
+      <c r="B310" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>210</v>
+      </c>
+      <c r="B311" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>210</v>
+      </c>
+      <c r="B312" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>210</v>
+      </c>
+      <c r="B313" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>210</v>
+      </c>
+      <c r="B314" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>210</v>
+      </c>
+      <c r="B315" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>210</v>
+      </c>
+      <c r="B316" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>210</v>
+      </c>
+      <c r="B317" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>210</v>
+      </c>
+      <c r="B318" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>210</v>
+      </c>
+      <c r="B319" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>210</v>
+      </c>
+      <c r="B320" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>210</v>
+      </c>
+      <c r="B321" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>210</v>
+      </c>
+      <c r="B322" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>210</v>
+      </c>
+      <c r="B323" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>210</v>
+      </c>
+      <c r="B324" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>210</v>
+      </c>
+      <c r="B325" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>210</v>
+      </c>
+      <c r="B326" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>210</v>
+      </c>
+      <c r="B327" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>210</v>
+      </c>
+      <c r="B328" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>210</v>
+      </c>
+      <c r="B329" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>210</v>
+      </c>
+      <c r="B330" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>210</v>
+      </c>
+      <c r="B331" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>210</v>
+      </c>
+      <c r="B332" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>210</v>
+      </c>
+      <c r="B333" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>210</v>
+      </c>
+      <c r="B334" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>210</v>
+      </c>
+      <c r="B335" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>210</v>
+      </c>
+      <c r="B336" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>210</v>
+      </c>
+      <c r="B337" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>210</v>
+      </c>
+      <c r="B338" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>210</v>
+      </c>
+      <c r="B339" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>210</v>
+      </c>
+      <c r="B340" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>210</v>
+      </c>
+      <c r="B341" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>210</v>
+      </c>
+      <c r="B342" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>210</v>
+      </c>
+      <c r="B343" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>210</v>
+      </c>
+      <c r="B344" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>210</v>
+      </c>
+      <c r="B345" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>210</v>
+      </c>
+      <c r="B346" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>210</v>
+      </c>
+      <c r="B347" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>210</v>
+      </c>
+      <c r="B348" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>210</v>
+      </c>
+      <c r="B349" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>210</v>
+      </c>
+      <c r="B350" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>210</v>
+      </c>
+      <c r="B351" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>210</v>
+      </c>
+      <c r="B352" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>210</v>
+      </c>
+      <c r="B353" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>210</v>
+      </c>
+      <c r="B354" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>210</v>
+      </c>
+      <c r="B355" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>210</v>
+      </c>
+      <c r="B356" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>210</v>
+      </c>
+      <c r="B357" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>210</v>
+      </c>
+      <c r="B358" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>210</v>
+      </c>
+      <c r="B359" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>210</v>
+      </c>
+      <c r="B360" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>210</v>
+      </c>
+      <c r="B361" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>210</v>
+      </c>
+      <c r="B362" t="s">
+        <v>366</v>
+      </c>
+      <c r="C362" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>210</v>
+      </c>
+      <c r="B363" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>210</v>
+      </c>
+      <c r="B364" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>210</v>
+      </c>
+      <c r="B365" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>210</v>
+      </c>
+      <c r="B366" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>210</v>
+      </c>
+      <c r="B367" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>210</v>
+      </c>
+      <c r="B368" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>210</v>
+      </c>
+      <c r="B369" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>210</v>
+      </c>
+      <c r="B370" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>210</v>
+      </c>
+      <c r="B371" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>210</v>
+      </c>
+      <c r="B372" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>210</v>
+      </c>
+      <c r="B373" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>210</v>
+      </c>
+      <c r="B374" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>210</v>
+      </c>
+      <c r="B375" t="s">
+        <v>379</v>
+      </c>
+      <c r="C375" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>210</v>
+      </c>
+      <c r="B376" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>210</v>
+      </c>
+      <c r="B377" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>210</v>
+      </c>
+      <c r="B378" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>210</v>
+      </c>
+      <c r="B379" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>210</v>
+      </c>
+      <c r="B380" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>210</v>
+      </c>
+      <c r="B381" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>210</v>
+      </c>
+      <c r="B382" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>210</v>
+      </c>
+      <c r="B383" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>210</v>
+      </c>
+      <c r="B384" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>210</v>
+      </c>
+      <c r="B385" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>210</v>
+      </c>
+      <c r="B386" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C260" xr:uid="{EF5AA1A9-BF36-4E01-8C1C-DF384EC058C4}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="deprivation"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C386" xr:uid="{ED44AD21-424B-4A23-97A1-8AC2C0B1EF3E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sli_measures.xlsx
+++ b/sli_measures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa0eda03202f8011/BI/Repo/asc-localities-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_AE351DC08F79A8D366075C52F37BD2727A472C54" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0B922AA-8196-47A6-972A-506837EED5F6}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E807E18D-87DF-4EBB-A06D-B1A8601C217D}"/>
   <bookViews>
     <workbookView xWindow="-57120" yWindow="-120" windowWidth="28440" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$386</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$881</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="893">
   <si>
     <t>theme</t>
   </si>
@@ -34,6 +34,441 @@
     <t>include</t>
   </si>
   <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants aged 65-69</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants aged 70-74</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants aged 75-79</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants aged 80-84</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants aged 85-89</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants aged 90+</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants, Higher Rate award</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants, Lower Rate award</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants, female</t>
+  </si>
+  <si>
+    <t>Attendance Allowance claimants, male</t>
+  </si>
+  <si>
+    <t>Carers Allowance claimants</t>
+  </si>
+  <si>
+    <t>Carers receiving Income Support</t>
+  </si>
+  <si>
+    <t>Change in unemployment claimant rate 2005 to 2019</t>
+  </si>
+  <si>
+    <t>Children (aged under 16) in families receiving Child Tax Credit only, and income &lt;60% median income</t>
+  </si>
+  <si>
+    <t>Children (aged under 16) in families receiving Income Support or Jobseekers Allowance</t>
+  </si>
+  <si>
+    <t>Children (aged under 16) in families receiving Working Tax Credit and Child Tax Credit, and income &lt;60% median income</t>
+  </si>
+  <si>
+    <t>Children and young people (0-18) in out-of-work families (includes families claiming Universal Credit)</t>
+  </si>
+  <si>
+    <t>Claiming out of work benefits (Benefit Combinations)</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants aged 16-24</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants aged 25-49</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants aged 50-59</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants aged Under 16</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants, Higher Rate Care award</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants, Higher Rate Mobility award</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants, Lower Rate Care award</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants, Lower Rate Mobility award</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants, Middle Rate Care award</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants, female</t>
+  </si>
+  <si>
+    <t>Disability Living Allowance claimants, male</t>
+  </si>
+  <si>
+    <t>Disability benefit (DLA)</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants aged 16-24</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants aged 25-49</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants aged 50-59</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants aged 60+</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, Female</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, Male</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, disease code injury or poisoning</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, disease code mental</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, disease code muscoskeletal</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, disease code nervous system</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, disease code other</t>
+  </si>
+  <si>
+    <t>Employment and Support Allowance claimants, disease code respiratory or circulatory</t>
+  </si>
+  <si>
+    <t>Households on Universal Credit - Limited Capability for Work Entitlement</t>
+  </si>
+  <si>
+    <t>Households on Universal Credit, Carer Entitlement</t>
+  </si>
+  <si>
+    <t>Households on Universal Credit, Child Entitlement</t>
+  </si>
+  <si>
+    <t>Households on Universal Credit, Disabled Child Entitlement</t>
+  </si>
+  <si>
+    <t>Households on Universal Credit, Family type, single with dependent children</t>
+  </si>
+  <si>
+    <t>Households on Universal Credit, Housing Entitlement, Private rented</t>
+  </si>
+  <si>
+    <t>Households on Universal Credit, Housing Entitlement, Social rented</t>
+  </si>
+  <si>
+    <t>Housing Benefit</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants aged 16-24</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants aged 25-49</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants aged 50-59</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants aged 60 and over</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, disease code is 'Injury, poisoning'</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, disease code is 'Mental'</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, disease code is 'Muscoskeletal'</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, disease code is 'Nervous System'</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, disease code is 'Other'</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, disease code is 'Respiratory or Circulatory'</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, female</t>
+  </si>
+  <si>
+    <t>Incapacity Benefit claimants, male</t>
+  </si>
+  <si>
+    <t>Income Support claimants</t>
+  </si>
+  <si>
+    <t>Income Support claimants aged 16-24</t>
+  </si>
+  <si>
+    <t>Income Support claimants aged 25-49</t>
+  </si>
+  <si>
+    <t>Income Support claimants aged 50-59</t>
+  </si>
+  <si>
+    <t>Income Support claimants aged 60 and over</t>
+  </si>
+  <si>
+    <t>Income Support claimants who are single</t>
+  </si>
+  <si>
+    <t>Income Support claimants, female</t>
+  </si>
+  <si>
+    <t>Income Support claimants, male</t>
+  </si>
+  <si>
+    <t>Income Support claimants, who are with partner</t>
+  </si>
+  <si>
+    <t>Income Support disability premium</t>
+  </si>
+  <si>
+    <t>Jobseekers Allowance claimants, claiming for over 12 months</t>
+  </si>
+  <si>
+    <t>Lone Parents receiving Income Support</t>
+  </si>
+  <si>
+    <t>Older people social care benefit (Attendance Allowance)</t>
+  </si>
+  <si>
+    <t>Older person unemployment (50+ receiving JSA or Universal Credit)</t>
+  </si>
+  <si>
+    <t>Pension Credit claimants who are single</t>
+  </si>
+  <si>
+    <t>Pension Credit claimants who are with partner</t>
+  </si>
+  <si>
+    <t>Pension Credit claimants, Guarantee Element</t>
+  </si>
+  <si>
+    <t>Pension Credit claimants, Guarantee and Saving Element</t>
+  </si>
+  <si>
+    <t>Pension Credit claimants, Saving Element</t>
+  </si>
+  <si>
+    <t>Pension Credit claimants, female</t>
+  </si>
+  <si>
+    <t>Pension Credit claimants, male</t>
+  </si>
+  <si>
+    <t>Pensioners in poverty (Pension Credit)</t>
+  </si>
+  <si>
+    <t>People of pensionable age claiming DWP Benefits (Benefit Combinations)</t>
+  </si>
+  <si>
+    <t>People receiving Disability Benefits</t>
+  </si>
+  <si>
+    <t>People with mental health issues  (receiving IB/ESA)</t>
+  </si>
+  <si>
+    <t>Personal Independence Payment (PIP)</t>
+  </si>
+  <si>
+    <t>Personal Independence Payment (PIP), female</t>
+  </si>
+  <si>
+    <t>Personal Independence Payment (PIP), male</t>
+  </si>
+  <si>
+    <t>Personal Independence Payment (PIP), mental health claimants</t>
+  </si>
+  <si>
+    <t>Personal Independence Payment (PIP), respiratory disease claimants</t>
+  </si>
+  <si>
+    <t>Personal Independence Payment claimants aged 16-24</t>
+  </si>
+  <si>
+    <t>Severe Disablement Allowance claimants</t>
+  </si>
+  <si>
+    <t>State Pension total claimants</t>
+  </si>
+  <si>
+    <t>Unemployment benefit</t>
+  </si>
+  <si>
+    <t>Unemployment benefit (JSA and Universal Credit) (August 2021)</t>
+  </si>
+  <si>
+    <t>Unemployment benefit (JSA and Universal Credit), female</t>
+  </si>
+  <si>
+    <t>Unemployment benefit (JSA and Universal Credit), male</t>
+  </si>
+  <si>
+    <t>Universal Credit</t>
+  </si>
+  <si>
+    <t>Universal Credit claimants - Conditionality Regime: No work requirements</t>
+  </si>
+  <si>
+    <t>Universal Credit claimants - Conditionality Regime: Planning for work</t>
+  </si>
+  <si>
+    <t>Universal Credit claimants - Conditionality Regime: Preparing for work</t>
+  </si>
+  <si>
+    <t>Universal Credit claimants - Conditionality Regime: Searching for work</t>
+  </si>
+  <si>
+    <t>Universal Credit claimants - Conditionality Regime: Working No requirements</t>
+  </si>
+  <si>
+    <t>Universal Credit claimants - Conditionality Regime: Working with requirements</t>
+  </si>
+  <si>
+    <t>Working age Benefit claimants (Benefit combinations)</t>
+  </si>
+  <si>
+    <t>Working age Benefit claimants (aged 16-24)</t>
+  </si>
+  <si>
+    <t>Working age welfare benefit claimants (Working age client group)</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants aged 16-24</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants aged 25-49</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants aged 50 and over</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, Bereaved</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, Carer</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, Disabled</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, Incapacity Benefits</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, Income Related Benefit</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, Job Seeker</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, Lone Parent</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, female</t>
+  </si>
+  <si>
+    <t>Working-age DWP benefit claimants, male</t>
+  </si>
+  <si>
+    <t>Workless through sickness benefit (IB/ESA)</t>
+  </si>
+  <si>
+    <t>Youth unemployment (18-24 receiving JSA or Universal Credit) (August 2021)</t>
+  </si>
+  <si>
+    <t>Total households on Universal Credit</t>
+  </si>
+  <si>
+    <t>Universal Credit Claimants - In Employment</t>
+  </si>
+  <si>
+    <t>Universal Credit Claimants - Unemployed</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>Anti-social behaviour</t>
+  </si>
+  <si>
+    <t>Bicycle theft offences</t>
+  </si>
+  <si>
+    <t>Burglary</t>
+  </si>
+  <si>
+    <t>Criminal damage</t>
+  </si>
+  <si>
+    <t>Drug crime offences</t>
+  </si>
+  <si>
+    <t>Other crime offences</t>
+  </si>
+  <si>
+    <t>Other theft offences</t>
+  </si>
+  <si>
+    <t>Possession of weapons offences</t>
+  </si>
+  <si>
+    <t>Public order offences</t>
+  </si>
+  <si>
+    <t>Robbery recorded offences</t>
+  </si>
+  <si>
+    <t>Shoplifting offences</t>
+  </si>
+  <si>
+    <t>Theft from the person offences</t>
+  </si>
+  <si>
+    <t>Total crime offences</t>
+  </si>
+  <si>
+    <t>Vehicle crime</t>
+  </si>
+  <si>
+    <t>Violent crime and sexual offences</t>
+  </si>
+  <si>
     <t>deprivation</t>
   </si>
   <si>
@@ -274,6 +709,900 @@
     <t>Total annual household income estimate</t>
   </si>
   <si>
+    <t>economy</t>
+  </si>
+  <si>
+    <t>All VAT based local units</t>
+  </si>
+  <si>
+    <t>At risk employees (as a result of COVID-19) by employee residence</t>
+  </si>
+  <si>
+    <t>At risk jobs (as a result of COVID-19) by location of job</t>
+  </si>
+  <si>
+    <t>Central government business units</t>
+  </si>
+  <si>
+    <t>Children in out-of-work families</t>
+  </si>
+  <si>
+    <t>Economically active</t>
+  </si>
+  <si>
+    <t>Economically active: Full-time student</t>
+  </si>
+  <si>
+    <t>Economically active: Unemployed</t>
+  </si>
+  <si>
+    <t>Economically inactive</t>
+  </si>
+  <si>
+    <t>Economically inactive: Long-term sick or disabled</t>
+  </si>
+  <si>
+    <t>Economically inactive: Looking after home or family</t>
+  </si>
+  <si>
+    <t>Economically inactive: Other</t>
+  </si>
+  <si>
+    <t>Economically inactive: Retired</t>
+  </si>
+  <si>
+    <t>Economically inactive: Student (including full-time students)</t>
+  </si>
+  <si>
+    <t>Employment rate: Asian</t>
+  </si>
+  <si>
+    <t>Employment rate: Black</t>
+  </si>
+  <si>
+    <t>Employment rate: Mixed Ethnicity</t>
+  </si>
+  <si>
+    <t>Employment rate: Other Ethnicity</t>
+  </si>
+  <si>
+    <t>Employment rate: White</t>
+  </si>
+  <si>
+    <t>Female lone parent: In full-time employment</t>
+  </si>
+  <si>
+    <t>Female lone parent: In part-time employment</t>
+  </si>
+  <si>
+    <t>Female lone parent: Not in employment</t>
+  </si>
+  <si>
+    <t>Females: Full-time: 31 to 48 hours worked</t>
+  </si>
+  <si>
+    <t>Females: Full-time: 49 or more hours worked</t>
+  </si>
+  <si>
+    <t>Females: Part-time: 15 hours or less worked</t>
+  </si>
+  <si>
+    <t>Females: Part-time: 16 to 30 hours worked</t>
+  </si>
+  <si>
+    <t>Financial vulnerability index rank</t>
+  </si>
+  <si>
+    <t>Full-time employee jobs</t>
+  </si>
+  <si>
+    <t>Full-time: 31 to 48 hours worked</t>
+  </si>
+  <si>
+    <t>Full-time: 49 or more hours worked</t>
+  </si>
+  <si>
+    <t>Industrial use class sector</t>
+  </si>
+  <si>
+    <t>Industry: Accommodation and food service activities</t>
+  </si>
+  <si>
+    <t>Industry: Administrative and support service activities</t>
+  </si>
+  <si>
+    <t>Industry: Agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>Industry: Construction</t>
+  </si>
+  <si>
+    <t>Industry: Education</t>
+  </si>
+  <si>
+    <t>Industry: Electricity, gas, steam and air conditioning supply</t>
+  </si>
+  <si>
+    <t>Industry: Financial and insurance activities</t>
+  </si>
+  <si>
+    <t>Industry: Human health and social work activities</t>
+  </si>
+  <si>
+    <t>Industry: Information and communication</t>
+  </si>
+  <si>
+    <t>Industry: Manufacturing</t>
+  </si>
+  <si>
+    <t>Industry: Mining and quarrying</t>
+  </si>
+  <si>
+    <t>Industry: Other industries</t>
+  </si>
+  <si>
+    <t>Industry: Professional, scientific and technical activities</t>
+  </si>
+  <si>
+    <t>Industry: Public administration and defence; compulsory social security</t>
+  </si>
+  <si>
+    <t>Industry: Real estate activities</t>
+  </si>
+  <si>
+    <t>Industry: Transport and storage</t>
+  </si>
+  <si>
+    <t>Industry: Water supply; sewerage, waste management and remediation activities</t>
+  </si>
+  <si>
+    <t>Industry: Wholesale and retail trade; repair of motor vehicles and motor cycles</t>
+  </si>
+  <si>
+    <t>Jobs density (jobs as a percentage of the working age population)</t>
+  </si>
+  <si>
+    <t>Jobs in accommodation and food services (hospitality)</t>
+  </si>
+  <si>
+    <t>Jobs in agriculture, forestry and fishing</t>
+  </si>
+  <si>
+    <t>Jobs in arts, entertainment, recreation and other services</t>
+  </si>
+  <si>
+    <t>Jobs in business administration and support services</t>
+  </si>
+  <si>
+    <t>Jobs in construction</t>
+  </si>
+  <si>
+    <t>Jobs in education</t>
+  </si>
+  <si>
+    <t>Jobs in financial and insurance</t>
+  </si>
+  <si>
+    <t>Jobs in health</t>
+  </si>
+  <si>
+    <t>Jobs in information and communication</t>
+  </si>
+  <si>
+    <t>Jobs in manufacturing</t>
+  </si>
+  <si>
+    <t>Jobs in mining, quarrying and utilities</t>
+  </si>
+  <si>
+    <t>Jobs in motor trades</t>
+  </si>
+  <si>
+    <t>Jobs in professional, scientific and technical</t>
+  </si>
+  <si>
+    <t>Jobs in property</t>
+  </si>
+  <si>
+    <t>Jobs in public administration and defence</t>
+  </si>
+  <si>
+    <t>Jobs in retail</t>
+  </si>
+  <si>
+    <t>Jobs in transport and storage (inc postal)</t>
+  </si>
+  <si>
+    <t>Jobs in wholesale</t>
+  </si>
+  <si>
+    <t>Last worked before 2001</t>
+  </si>
+  <si>
+    <t>Last worked in 2001 - 2005</t>
+  </si>
+  <si>
+    <t>Last worked in 2006</t>
+  </si>
+  <si>
+    <t>Last worked in 2007</t>
+  </si>
+  <si>
+    <t>Last worked in 2008</t>
+  </si>
+  <si>
+    <t>Last worked in 2009</t>
+  </si>
+  <si>
+    <t>Last worked in 2010</t>
+  </si>
+  <si>
+    <t>Last worked in 2011</t>
+  </si>
+  <si>
+    <t>Local government business units</t>
+  </si>
+  <si>
+    <t>Lone parent in full-time employment: Total</t>
+  </si>
+  <si>
+    <t>Lone parent in part-time employment: Total</t>
+  </si>
+  <si>
+    <t>Lone parent not in employment: Total</t>
+  </si>
+  <si>
+    <t>Male lone parent: In full-time employment</t>
+  </si>
+  <si>
+    <t>Male lone parent: In part-time employment</t>
+  </si>
+  <si>
+    <t>Male lone parent: Not in employment</t>
+  </si>
+  <si>
+    <t>Males: Full-time: 31 to 48 hours worked</t>
+  </si>
+  <si>
+    <t>Males: Full-time: 49 or more hours worked</t>
+  </si>
+  <si>
+    <t>Males: Part-time: 15 hours or less worked</t>
+  </si>
+  <si>
+    <t>Males: Part-time: 16 to 30 hours worked</t>
+  </si>
+  <si>
+    <t>Median net equivalised household income</t>
+  </si>
+  <si>
+    <t>No adults in employment in household: No dependent children</t>
+  </si>
+  <si>
+    <t>No adults in employment in household: With dependent children</t>
+  </si>
+  <si>
+    <t>Occupation group: Administrative and secretarial occupations</t>
+  </si>
+  <si>
+    <t>Occupation group: Associate professional and technical occupations</t>
+  </si>
+  <si>
+    <t>Occupation group: Caring, leisure and other service occupations</t>
+  </si>
+  <si>
+    <t>Occupation group: Elementary occupations</t>
+  </si>
+  <si>
+    <t>Occupation group: Managers, directors and senior officials</t>
+  </si>
+  <si>
+    <t>Occupation group: Process, plant and machine operatives</t>
+  </si>
+  <si>
+    <t>Occupation group: Professional occupations</t>
+  </si>
+  <si>
+    <t>Occupation group: Sales and customer service occupations</t>
+  </si>
+  <si>
+    <t>Occupation group: Skilled trades occupations</t>
+  </si>
+  <si>
+    <t>Office use class sector</t>
+  </si>
+  <si>
+    <t>Part-time employee jobs</t>
+  </si>
+  <si>
+    <t>Part-time: 15 hours or less worked</t>
+  </si>
+  <si>
+    <t>Part-time: 16 to 30 hours worked</t>
+  </si>
+  <si>
+    <t>Private sector business units</t>
+  </si>
+  <si>
+    <t>Private sector company business units</t>
+  </si>
+  <si>
+    <t>Private sector employee jobs</t>
+  </si>
+  <si>
+    <t>Private sector non-profit business units</t>
+  </si>
+  <si>
+    <t>Private sector partnership business units</t>
+  </si>
+  <si>
+    <t>Private sector sole proprietor business units</t>
+  </si>
+  <si>
+    <t>Public corporation business units</t>
+  </si>
+  <si>
+    <t>Public sector business units</t>
+  </si>
+  <si>
+    <t>Public sector employee jobs</t>
+  </si>
+  <si>
+    <t>SME lending debt per person aged 18+</t>
+  </si>
+  <si>
+    <t>Self-employed working full-time with employees</t>
+  </si>
+  <si>
+    <t>Self-employed working full-time without employees</t>
+  </si>
+  <si>
+    <t>Self-employed working part-time with employees</t>
+  </si>
+  <si>
+    <t>Self-employed working part-time without employees</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 1 Higher managerial, administrative and professional occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 1.1 Large employers and higher managerial and administrative occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 1.2 Higher professional occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 2. Lower managerial, administrative and professional occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 3. Intermediate occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 4. Small employers and own account workers</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 5. Lower supervisory and technical occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 6. Semi-routine occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 7. Routine occupations</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): 8. Never worked and long-term unemployed</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): L14.1 Never worked</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): L14.2 Long-term unemployed</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): L15 Full-time students</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): L17 Not classifiable for other reasons</t>
+  </si>
+  <si>
+    <t>Social grade (N-SEC): Not classified</t>
+  </si>
+  <si>
+    <t>Unemployment to available jobs ratio</t>
+  </si>
+  <si>
+    <t>VAT based enterprises with a turnover of £0 to 49,000</t>
+  </si>
+  <si>
+    <t>VAT based enterprises with a turnover of £1,000,000 to 4,999,000</t>
+  </si>
+  <si>
+    <t>VAT based enterprises with a turnover of £100,000 to 199,000</t>
+  </si>
+  <si>
+    <t>VAT based enterprises with a turnover of £200,000 to 499,000</t>
+  </si>
+  <si>
+    <t>VAT based enterprises with a turnover of £5,000,000 plus</t>
+  </si>
+  <si>
+    <t>VAT based enterprises with a turnover of £50,000 to 99,000</t>
+  </si>
+  <si>
+    <t>VAT based enterprises with a turnover of £500,000 to 999,000</t>
+  </si>
+  <si>
+    <t>VAT based local units employing 0 to 4 people</t>
+  </si>
+  <si>
+    <t>VAT based local units employing 10 to 19 people</t>
+  </si>
+  <si>
+    <t>VAT based local units employing 20 or more people</t>
+  </si>
+  <si>
+    <t>VAT based local units employing 5 to 9 people</t>
+  </si>
+  <si>
+    <t>VAT based local units in accommodation and food services</t>
+  </si>
+  <si>
+    <t>VAT based local units in agriculture</t>
+  </si>
+  <si>
+    <t>VAT based local units in arts, entertainment, recreation and other services</t>
+  </si>
+  <si>
+    <t>VAT based local units in business administration and support services</t>
+  </si>
+  <si>
+    <t>VAT based local units in construction</t>
+  </si>
+  <si>
+    <t>VAT based local units in education</t>
+  </si>
+  <si>
+    <t>VAT based local units in finance and insurance</t>
+  </si>
+  <si>
+    <t>VAT based local units in health</t>
+  </si>
+  <si>
+    <t>VAT based local units in information and communication</t>
+  </si>
+  <si>
+    <t>VAT based local units in manufacturing and production</t>
+  </si>
+  <si>
+    <t>VAT based local units in motor trades</t>
+  </si>
+  <si>
+    <t>VAT based local units in professional, scientific &amp; technical services</t>
+  </si>
+  <si>
+    <t>VAT based local units in property and business services</t>
+  </si>
+  <si>
+    <t>VAT based local units in public administration and other services</t>
+  </si>
+  <si>
+    <t>VAT based local units in the retail industry</t>
+  </si>
+  <si>
+    <t>VAT based local units in transport</t>
+  </si>
+  <si>
+    <t>VAT based local units in wholesale</t>
+  </si>
+  <si>
+    <t>Warehouse use class sector</t>
+  </si>
+  <si>
+    <t>Work mainly at or from home</t>
+  </si>
+  <si>
+    <t>Net household equivalised income, 10th percentile</t>
+  </si>
+  <si>
+    <t>Net household equivalised income, 50th percentile</t>
+  </si>
+  <si>
+    <t>Net household equivalised income, 90th percentile</t>
+  </si>
+  <si>
+    <t>Net individual income, 10th percentile</t>
+  </si>
+  <si>
+    <t>Net individual income, 50th percentile</t>
+  </si>
+  <si>
+    <t>Net individual income, 90th percentile</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>All pupils achieving level 2 in Mathematics at Key Stage 1</t>
+  </si>
+  <si>
+    <t>All pupils achieving level 2 in Reading at Key Stage 1</t>
+  </si>
+  <si>
+    <t>All pupils achieving level 2 in Science at Key Stage 1</t>
+  </si>
+  <si>
+    <t>All pupils achieving level 2 in Writing at Key Stage 1</t>
+  </si>
+  <si>
+    <t>Average Point Score (Capped) at Key Stage 4 (GCSE) for all pupils</t>
+  </si>
+  <si>
+    <t>Average Point Score - Key Stage 1 pupils</t>
+  </si>
+  <si>
+    <t>Average Point Score - Key Stage 2 pupils</t>
+  </si>
+  <si>
+    <t>Early Years Foundation Stage, Average Point Score</t>
+  </si>
+  <si>
+    <t>Highest level of qualification: Apprenticeship</t>
+  </si>
+  <si>
+    <t>Highest level of qualification: Level 1 qualifications</t>
+  </si>
+  <si>
+    <t>Highest level of qualification: Level 2 qualifications</t>
+  </si>
+  <si>
+    <t>Highest level of qualification: Level 3 qualifications</t>
+  </si>
+  <si>
+    <t>Highest level of qualification: Level 4/5 (degree or higher) qualifications</t>
+  </si>
+  <si>
+    <t>Highest level of qualification: Other qualifications</t>
+  </si>
+  <si>
+    <t>Key Stage 4 (GCSE) average point score per pupil</t>
+  </si>
+  <si>
+    <t>Participation in higher education (Proportion of a young cohort that has entered higher education by age 19)</t>
+  </si>
+  <si>
+    <t>Participation of state school pupils in higher education</t>
+  </si>
+  <si>
+    <t>People aged 16-24 with no qualifications</t>
+  </si>
+  <si>
+    <t>People over the age 25 to 34 with Apprenticeship</t>
+  </si>
+  <si>
+    <t>People over the age 25 to 34 with Level 1 qualifications</t>
+  </si>
+  <si>
+    <t>People over the age 25 to 34 with Level 2 qualifications</t>
+  </si>
+  <si>
+    <t>People over the age 25 to 34 with Level 3 qualifications</t>
+  </si>
+  <si>
+    <t>People over the age 25 to 34 with Level 4 qualifications and above</t>
+  </si>
+  <si>
+    <t>People over the age 25 to 34 with Other qualifications</t>
+  </si>
+  <si>
+    <t>People over the age 25 to 34 with no qualifications</t>
+  </si>
+  <si>
+    <t>People over the age of 65 with no qualifications</t>
+  </si>
+  <si>
+    <t>People with ICT multiple choice skills at entry level 1 (2011) (%)</t>
+  </si>
+  <si>
+    <t>People with literacy skills at entry level 1 or below (2011) (%)</t>
+  </si>
+  <si>
+    <t>People with no qualifications</t>
+  </si>
+  <si>
+    <t>People with numeracy skills at entry level 1 or below (2011) (%)</t>
+  </si>
+  <si>
+    <t>Pupil authorised absences</t>
+  </si>
+  <si>
+    <t>Pupil overall absences</t>
+  </si>
+  <si>
+    <t>Pupil persistent absentees</t>
+  </si>
+  <si>
+    <t>Pupil unauthorised absences</t>
+  </si>
+  <si>
+    <t>Pupils achieving 5 or more Key Stage 4 (GCSE) passes at A*-C</t>
+  </si>
+  <si>
+    <t>Pupils achieving 5 or more Key Stage 4 (GCSE) passes at A*-C, including English and Maths</t>
+  </si>
+  <si>
+    <t>Pupils achieving 5 or more Key Stage 4 (GCSE) passes at A*-G</t>
+  </si>
+  <si>
+    <t>Pupils achieving 5 or more Key Stage 4 (GCSE) passes at A*-G, including English and Maths</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 2, Level 4 in Maths</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 2, Level 4 in Reading</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 2, Level 4 in Reading, Writing and Maths</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 2, Level 4 in Writing</t>
+  </si>
+  <si>
+    <t>Pupils achieving a ‘good level of development’ at Early Years Foundation stage</t>
+  </si>
+  <si>
+    <t>Pupils achieving at least the expected level in all 17 Early Learning Goals</t>
+  </si>
+  <si>
+    <t>Pupils achieving the English Baccalaureate</t>
+  </si>
+  <si>
+    <t>Pupils at the end of Key Stage 4 (GCSE) achieving the Basics</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>AHAH A&amp;E Hospitals</t>
+  </si>
+  <si>
+    <t>AHAH Air quality domain</t>
+  </si>
+  <si>
+    <t>AHAH Blue Space</t>
+  </si>
+  <si>
+    <t>AHAH Dentists</t>
+  </si>
+  <si>
+    <t>AHAH Fast food outlets</t>
+  </si>
+  <si>
+    <t>AHAH GP surgeries</t>
+  </si>
+  <si>
+    <t>AHAH Gambling outlets</t>
+  </si>
+  <si>
+    <t>AHAH Green Space (active)</t>
+  </si>
+  <si>
+    <t>AHAH Green Space (passive) within a 900m buffer</t>
+  </si>
+  <si>
+    <t>AHAH Health Services domain</t>
+  </si>
+  <si>
+    <t>AHAH Index (score)</t>
+  </si>
+  <si>
+    <t>AHAH Leisure Centers</t>
+  </si>
+  <si>
+    <t>AHAH Nitrogen Dioxide</t>
+  </si>
+  <si>
+    <t>AHAH Off licenses</t>
+  </si>
+  <si>
+    <t>AHAH Particulate Matter</t>
+  </si>
+  <si>
+    <t>AHAH Pharmacies</t>
+  </si>
+  <si>
+    <t>AHAH Physical Environment domain</t>
+  </si>
+  <si>
+    <t>AHAH Pubs/bars/nightclubs</t>
+  </si>
+  <si>
+    <t>AHAH Retail Environment domain</t>
+  </si>
+  <si>
+    <t>AHAH Sulphur Dioxide</t>
+  </si>
+  <si>
+    <t>AHAH Tobacconists</t>
+  </si>
+  <si>
+    <t>Average consumption of domestic gas (per household)</t>
+  </si>
+  <si>
+    <t>Belonging: average score</t>
+  </si>
+  <si>
+    <t>Children providing unpaid care</t>
+  </si>
+  <si>
+    <t>Community Needs Index: Active and Engaged Community score</t>
+  </si>
+  <si>
+    <t>Community Needs Index: Civic Assets score</t>
+  </si>
+  <si>
+    <t>Community Needs Index: Community Needs score</t>
+  </si>
+  <si>
+    <t>Community Needs Index: Connectedness score</t>
+  </si>
+  <si>
+    <t>Current average energy efficiency of domestic buildings</t>
+  </si>
+  <si>
+    <t>Difference between current and potential percentage of buildings with band A (highest) energy efficiency rating</t>
+  </si>
+  <si>
+    <t>Employment area ratio: workplace population / resident population</t>
+  </si>
+  <si>
+    <t>Energy efficiency gap for domestic buildings</t>
+  </si>
+  <si>
+    <t>Estimated domestic electricity consumption per household in megawatt hours (Mwh)</t>
+  </si>
+  <si>
+    <t>Estimated domestic gas consumption per household in megawatt hours (Mwh)</t>
+  </si>
+  <si>
+    <t>Greenspace coverage, public parks and gardens</t>
+  </si>
+  <si>
+    <t>Greenspace coverage, total</t>
+  </si>
+  <si>
+    <t>Households with multiple needs</t>
+  </si>
+  <si>
+    <t>Local social relationships: average score</t>
+  </si>
+  <si>
+    <t>Lone parent households with dependent children</t>
+  </si>
+  <si>
+    <t>Pensioner living alone (as % of all pensioner households)</t>
+  </si>
+  <si>
+    <t>Percentage of domestic buildings with band A (highest) energy efficiency rating</t>
+  </si>
+  <si>
+    <t>Postcodes that are off the gas grid network</t>
+  </si>
+  <si>
+    <t>Potential average energy efficiency of domestic buildings</t>
+  </si>
+  <si>
+    <t>Potential percentage of domestic buildings with band A (highest) energy efficiency rating</t>
+  </si>
+  <si>
+    <t>Provides 1 to 19 hours unpaid care a week</t>
+  </si>
+  <si>
+    <t>Provides 20 to 49 hours unpaid care a week</t>
+  </si>
+  <si>
+    <t>Provides 50+ hours unpaid care a week</t>
+  </si>
+  <si>
+    <t>Provides no unpaid care</t>
+  </si>
+  <si>
+    <t>Satisfaction with local area as a place to live: average score</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Career-Focussed Females</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Comfortable Mid-Life Males</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Comfortable Retired Couples</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Competitive Male Urbanites</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Early Retirement Couples</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Empty Nest Career Ladies</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Fitness class friends</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Later Life Ladies</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Local Old Boys</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Middle England Mums</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Older Working Women</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Pub League Team Mates</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Retirement Home Singles</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Settling Down Males</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Sports Team Lads</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Stay at Home Mum</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Stretched Single Mums</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Supportive Singles</t>
+  </si>
+  <si>
+    <t>Sport England Market Segmentation: Twilight Year Gents</t>
+  </si>
+  <si>
+    <t>Teenage mothers</t>
+  </si>
+  <si>
+    <t>The National Lottery Community Fund grant funding per 1,000 (£) 2004-2010</t>
+  </si>
+  <si>
+    <t>The National Lottery Community Fund grant funding per 1,000 (£) 2011-2015</t>
+  </si>
+  <si>
+    <t>The National Lottery Community Fund grant funding per 1,000 (£) 2004-2015</t>
+  </si>
+  <si>
+    <t>Total amount awarded from major grant funders per head</t>
+  </si>
+  <si>
+    <t>Total count of grants from major grant funders</t>
+  </si>
+  <si>
+    <t>Total registered charities</t>
+  </si>
+  <si>
+    <t>Voter Turnout at Local Elections</t>
+  </si>
+  <si>
+    <t>Total carbon footprint per person (kg)</t>
+  </si>
+  <si>
+    <t>Percentage of domestic buildings band with A-C energy efficiency rating</t>
+  </si>
+  <si>
+    <t>Percentage of domestic buildings with band D-E energy efficiency rating</t>
+  </si>
+  <si>
+    <t>Percentage of domestic buildings with band F-G energy efficiency rating</t>
+  </si>
+  <si>
     <t>health</t>
   </si>
   <si>
@@ -1196,6 +2525,180 @@
   </si>
   <si>
     <t>Aged 0-25</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>1 car or van in household</t>
+  </si>
+  <si>
+    <t>2 cars or vans in household</t>
+  </si>
+  <si>
+    <t>3 cars or vans in household</t>
+  </si>
+  <si>
+    <t>Broadband data useage</t>
+  </si>
+  <si>
+    <t>Broadband speed</t>
+  </si>
+  <si>
+    <t>Digital exclusion index rank</t>
+  </si>
+  <si>
+    <t>Households with 4+ cars</t>
+  </si>
+  <si>
+    <t>Households with no car</t>
+  </si>
+  <si>
+    <t>Internet User Classification: Digital Seniors</t>
+  </si>
+  <si>
+    <t>Internet User Classification: Passive and Uncommitted Users</t>
+  </si>
+  <si>
+    <t>Internet User Classification: Settled Offline Communities</t>
+  </si>
+  <si>
+    <t>Internet User Classification: Youthful Urban Fringe</t>
+  </si>
+  <si>
+    <t>Internet User Classification: e-Cultural Creators</t>
+  </si>
+  <si>
+    <t>Internet User Classification: e-Mainstream</t>
+  </si>
+  <si>
+    <t>Internet User Classification: e-Professionals</t>
+  </si>
+  <si>
+    <t>Internet User Classification: e-Rational Utilitarians</t>
+  </si>
+  <si>
+    <t>Internet User Classification: e-Veterans</t>
+  </si>
+  <si>
+    <t>Internet User Classification: e-Withdrawn</t>
+  </si>
+  <si>
+    <t>Other method of travel to work</t>
+  </si>
+  <si>
+    <t>People travelling more than 10km to work</t>
+  </si>
+  <si>
+    <t>People travelling more than 10km to work who have no car</t>
+  </si>
+  <si>
+    <t>People travelling more than 10km to work who travel to work by driving in car</t>
+  </si>
+  <si>
+    <t>People travelling more than 10km to work who travel to work using public transport</t>
+  </si>
+  <si>
+    <t>People travelling more than 2km to work</t>
+  </si>
+  <si>
+    <t>Premises with broadband speeds below the Universal Service Obligation (USO)</t>
+  </si>
+  <si>
+    <t>Ratio of commuters by train vs car</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest ATM</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Bank or Building Society</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Convenience Store</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Dentist</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest GP</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Hospital</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Job Centre</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Petrol Station</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Pharmacy</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Post Office</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Primary School</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Pub</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Secondary School</t>
+  </si>
+  <si>
+    <t>Road distance (meters) from the nearest Supermarket</t>
+  </si>
+  <si>
+    <t>Travel time to nearest Further Education Institution by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel time to nearest GP by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel time to nearest Hospital by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel time to nearest Primary School by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel time to nearest Secondary School by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel time to nearest employment centre by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel time to nearest supermarket by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel time to nearest town centre by public transport/walk</t>
+  </si>
+  <si>
+    <t>Travel to work as passenger in a car or van</t>
+  </si>
+  <si>
+    <t>Travel to work by Taxi</t>
+  </si>
+  <si>
+    <t>Travel to work by bicycle</t>
+  </si>
+  <si>
+    <t>Travel to work by bus, minibus or coach</t>
+  </si>
+  <si>
+    <t>Travel to work by motorcycle, scooter or moped</t>
+  </si>
+  <si>
+    <t>Travel to work by train</t>
+  </si>
+  <si>
+    <t>Travel to work driving a car or van</t>
+  </si>
+  <si>
+    <t>Travel to work on foot</t>
+  </si>
+  <si>
+    <t>Travel to work on underground, metro, light rail, tram</t>
   </si>
   <si>
     <t>Yes</t>
@@ -1585,18 +3088,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C386"/>
+  <dimension ref="A1:C881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="133.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1730,7 +3233,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1738,7 +3241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1746,7 +3249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1754,7 +3257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1762,7 +3265,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1770,7 +3273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1778,7 +3281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1786,7 +3289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -1794,7 +3297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -1802,7 +3305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -1810,7 +3313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -1818,7 +3321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1826,7 +3329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1834,7 +3337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1842,7 +3345,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1850,29 +3353,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1880,7 +3377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -1888,7 +3385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -1896,7 +3393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1904,7 +3401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1912,7 +3409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1920,7 +3417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -1928,7 +3425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -1936,7 +3433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -1944,7 +3441,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -1952,7 +3449,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1960,7 +3457,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1968,7 +3465,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +3473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -1984,7 +3481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -2248,404 +3745,401 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
         <v>83</v>
       </c>
-      <c r="B81" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>83</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>83</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>3</v>
+      </c>
+      <c r="B94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>3</v>
+      </c>
+      <c r="B95" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>83</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>3</v>
+      </c>
+      <c r="B96" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B121" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B130" t="s">
         <v>133</v>
@@ -2653,7 +4147,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B131" t="s">
         <v>134</v>
@@ -2661,7 +4155,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B132" t="s">
         <v>135</v>
@@ -2669,7 +4163,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>136</v>
@@ -2677,7 +4171,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>137</v>
@@ -2685,7 +4179,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B135" t="s">
         <v>138</v>
@@ -2693,7 +4187,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
         <v>139</v>
@@ -2701,7 +4195,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B137" t="s">
         <v>140</v>
@@ -2709,7 +4203,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B138" t="s">
         <v>141</v>
@@ -2717,7 +4211,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B139" t="s">
         <v>142</v>
@@ -2725,7 +4219,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B140" t="s">
         <v>143</v>
@@ -2733,7 +4227,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B141" t="s">
         <v>144</v>
@@ -2741,7 +4235,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B142" t="s">
         <v>145</v>
@@ -2749,7 +4243,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B143" t="s">
         <v>146</v>
@@ -2757,7 +4251,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="B144" t="s">
         <v>147</v>
@@ -2765,506 +4259,509 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B146" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B147" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B153" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B155" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B156" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B157" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B158" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B159" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B161" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B164" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B166" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B167" t="s">
-        <v>170</v>
-      </c>
-      <c r="C167" t="s">
-        <v>391</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B173" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B174" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B175" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="C175" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B176" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="C176" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B177" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B179" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B180" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B181" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B182" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B183" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B185" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B186" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B187" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B188" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B189" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B190" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B191" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B192" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B193" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B195" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B196" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B198" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B199" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B201" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B202" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B203" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B204" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B205" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="B206" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B207" t="s">
         <v>211</v>
@@ -3272,7 +4769,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B208" t="s">
         <v>212</v>
@@ -3280,7 +4777,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B209" t="s">
         <v>213</v>
@@ -3288,7 +4785,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B210" t="s">
         <v>214</v>
@@ -3296,7 +4793,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B211" t="s">
         <v>215</v>
@@ -3304,7 +4801,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B212" t="s">
         <v>216</v>
@@ -3312,7 +4809,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B213" t="s">
         <v>217</v>
@@ -3320,7 +4817,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B214" t="s">
         <v>218</v>
@@ -3328,7 +4825,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B215" t="s">
         <v>219</v>
@@ -3336,7 +4833,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B216" t="s">
         <v>220</v>
@@ -3344,7 +4841,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B217" t="s">
         <v>221</v>
@@ -3352,7 +4849,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B218" t="s">
         <v>222</v>
@@ -3360,7 +4857,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B219" t="s">
         <v>223</v>
@@ -3368,7 +4865,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B220" t="s">
         <v>224</v>
@@ -3376,7 +4873,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B221" t="s">
         <v>225</v>
@@ -3384,7 +4881,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B222" t="s">
         <v>226</v>
@@ -3392,7 +4889,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="B223" t="s">
         <v>227</v>
@@ -3400,1316 +4897,5282 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B231" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B232" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B233" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B234" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B235" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B236" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B237" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B238" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B240" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B241" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B242" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B243" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B244" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B245" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B246" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B247" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B249" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B250" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B251" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B252" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B253" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B254" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B255" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B256" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B257" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B258" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B259" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B260" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B261" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B262" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B263" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B264" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B265" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B266" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B267" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B268" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B269" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B270" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B271" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B272" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B273" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B274" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B275" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B276" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B277" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B278" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B279" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B280" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B281" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B282" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B283" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B284" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B285" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B286" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B287" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B288" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B289" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B290" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B291" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B292" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B293" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B294" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B295" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B296" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B297" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B298" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B299" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B300" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B302" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B303" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B304" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B305" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B306" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B307" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B308" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B309" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B310" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B311" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B312" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B313" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B314" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B315" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B316" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B317" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B318" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B319" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B320" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B321" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B322" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B323" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B324" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B325" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B326" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B327" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B328" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B329" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B330" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B331" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B332" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B333" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B334" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B335" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B336" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B337" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B338" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B339" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B340" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B341" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B342" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B343" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B344" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B345" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B346" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B347" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B348" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B349" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B350" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B351" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B352" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B353" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B354" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B355" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B356" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B357" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B358" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B359" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B360" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B361" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B362" t="s">
-        <v>366</v>
-      </c>
-      <c r="C362" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B363" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B364" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B365" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B366" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B367" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B368" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B369" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B370" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B371" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B372" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B373" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B374" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B375" t="s">
-        <v>379</v>
-      </c>
-      <c r="C375" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B376" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B377" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B378" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B379" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B380" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B381" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B382" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B383" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B384" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B385" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B386" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>228</v>
+      </c>
+      <c r="B387" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>228</v>
+      </c>
+      <c r="B388" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>228</v>
+      </c>
+      <c r="B389" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>228</v>
+      </c>
+      <c r="B390" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>228</v>
+      </c>
+      <c r="B391" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>228</v>
+      </c>
+      <c r="B392" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>398</v>
+      </c>
+      <c r="B393" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>398</v>
+      </c>
+      <c r="B394" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>398</v>
+      </c>
+      <c r="B395" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>398</v>
+      </c>
+      <c r="B396" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>398</v>
+      </c>
+      <c r="B399" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>398</v>
+      </c>
+      <c r="B400" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>398</v>
+      </c>
+      <c r="B401" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>398</v>
+      </c>
+      <c r="B402" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>398</v>
+      </c>
+      <c r="B403" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>398</v>
+      </c>
+      <c r="B404" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>398</v>
+      </c>
+      <c r="B405" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>398</v>
+      </c>
+      <c r="B406" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>398</v>
+      </c>
+      <c r="B407" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>398</v>
+      </c>
+      <c r="B408" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>398</v>
+      </c>
+      <c r="B409" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>398</v>
+      </c>
+      <c r="B410" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>398</v>
+      </c>
+      <c r="B411" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>398</v>
+      </c>
+      <c r="B412" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>398</v>
+      </c>
+      <c r="B413" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>398</v>
+      </c>
+      <c r="B414" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>398</v>
+      </c>
+      <c r="B415" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>398</v>
+      </c>
+      <c r="B416" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>398</v>
+      </c>
+      <c r="B417" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>398</v>
+      </c>
+      <c r="B418" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>398</v>
+      </c>
+      <c r="B419" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>398</v>
+      </c>
+      <c r="B420" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>398</v>
+      </c>
+      <c r="B421" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>398</v>
+      </c>
+      <c r="B422" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>398</v>
+      </c>
+      <c r="B423" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>398</v>
+      </c>
+      <c r="B424" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>398</v>
+      </c>
+      <c r="B425" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>398</v>
+      </c>
+      <c r="B426" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>398</v>
+      </c>
+      <c r="B427" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>398</v>
+      </c>
+      <c r="B428" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>398</v>
+      </c>
+      <c r="B429" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>398</v>
+      </c>
+      <c r="B430" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>398</v>
+      </c>
+      <c r="B431" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>398</v>
+      </c>
+      <c r="B432" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>398</v>
+      </c>
+      <c r="B433" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>398</v>
+      </c>
+      <c r="B434" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>398</v>
+      </c>
+      <c r="B435" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>398</v>
+      </c>
+      <c r="B436" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>398</v>
+      </c>
+      <c r="B437" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>398</v>
+      </c>
+      <c r="B438" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>445</v>
+      </c>
+      <c r="B439" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>445</v>
+      </c>
+      <c r="B440" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>445</v>
+      </c>
+      <c r="B441" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>445</v>
+      </c>
+      <c r="B442" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>445</v>
+      </c>
+      <c r="B443" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>445</v>
+      </c>
+      <c r="B447" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>445</v>
+      </c>
+      <c r="B448" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>445</v>
+      </c>
+      <c r="B449" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>445</v>
+      </c>
+      <c r="B450" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>445</v>
+      </c>
+      <c r="B451" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>445</v>
+      </c>
+      <c r="B452" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>445</v>
+      </c>
+      <c r="B453" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>445</v>
+      </c>
+      <c r="B454" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>445</v>
+      </c>
+      <c r="B455" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>445</v>
+      </c>
+      <c r="B456" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>445</v>
+      </c>
+      <c r="B457" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>445</v>
+      </c>
+      <c r="B458" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>445</v>
+      </c>
+      <c r="B459" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>445</v>
+      </c>
+      <c r="B460" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>445</v>
+      </c>
+      <c r="B461" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>445</v>
+      </c>
+      <c r="B462" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>445</v>
+      </c>
+      <c r="B463" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>445</v>
+      </c>
+      <c r="B464" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>445</v>
+      </c>
+      <c r="B465" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>445</v>
+      </c>
+      <c r="B466" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>445</v>
+      </c>
+      <c r="B467" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>445</v>
+      </c>
+      <c r="B468" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>445</v>
+      </c>
+      <c r="B469" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>445</v>
+      </c>
+      <c r="B470" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>445</v>
+      </c>
+      <c r="B471" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>445</v>
+      </c>
+      <c r="B472" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>445</v>
+      </c>
+      <c r="B473" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>445</v>
+      </c>
+      <c r="B474" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>445</v>
+      </c>
+      <c r="B475" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>445</v>
+      </c>
+      <c r="B476" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>445</v>
+      </c>
+      <c r="B477" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>445</v>
+      </c>
+      <c r="B478" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>445</v>
+      </c>
+      <c r="B479" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>445</v>
+      </c>
+      <c r="B480" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>445</v>
+      </c>
+      <c r="B481" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>445</v>
+      </c>
+      <c r="B482" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>445</v>
+      </c>
+      <c r="B483" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>445</v>
+      </c>
+      <c r="B484" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>445</v>
+      </c>
+      <c r="B485" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>445</v>
+      </c>
+      <c r="B486" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>445</v>
+      </c>
+      <c r="B487" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>445</v>
+      </c>
+      <c r="B488" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>445</v>
+      </c>
+      <c r="B489" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>445</v>
+      </c>
+      <c r="B490" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>445</v>
+      </c>
+      <c r="B491" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>445</v>
+      </c>
+      <c r="B492" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>445</v>
+      </c>
+      <c r="B493" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>445</v>
+      </c>
+      <c r="B494" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>445</v>
+      </c>
+      <c r="B495" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>445</v>
+      </c>
+      <c r="B496" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>445</v>
+      </c>
+      <c r="B497" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>445</v>
+      </c>
+      <c r="B498" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>445</v>
+      </c>
+      <c r="B499" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>445</v>
+      </c>
+      <c r="B500" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>445</v>
+      </c>
+      <c r="B501" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>445</v>
+      </c>
+      <c r="B502" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>445</v>
+      </c>
+      <c r="B503" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>445</v>
+      </c>
+      <c r="B504" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>445</v>
+      </c>
+      <c r="B505" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>445</v>
+      </c>
+      <c r="B506" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>445</v>
+      </c>
+      <c r="B507" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>445</v>
+      </c>
+      <c r="B508" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>445</v>
+      </c>
+      <c r="B509" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>445</v>
+      </c>
+      <c r="B510" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>445</v>
+      </c>
+      <c r="B511" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>445</v>
+      </c>
+      <c r="B512" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>445</v>
+      </c>
+      <c r="B513" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>445</v>
+      </c>
+      <c r="B514" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>445</v>
+      </c>
+      <c r="B515" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>445</v>
+      </c>
+      <c r="B516" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>445</v>
+      </c>
+      <c r="B517" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>445</v>
+      </c>
+      <c r="B518" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>526</v>
+      </c>
+      <c r="B519" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>526</v>
+      </c>
+      <c r="B520" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>526</v>
+      </c>
+      <c r="B521" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>526</v>
+      </c>
+      <c r="B522" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>526</v>
+      </c>
+      <c r="B523" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>526</v>
+      </c>
+      <c r="B524" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>526</v>
+      </c>
+      <c r="B525" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>526</v>
+      </c>
+      <c r="B526" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>526</v>
+      </c>
+      <c r="B527" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>526</v>
+      </c>
+      <c r="B528" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>526</v>
+      </c>
+      <c r="B529" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>526</v>
+      </c>
+      <c r="B530" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>526</v>
+      </c>
+      <c r="B531" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>526</v>
+      </c>
+      <c r="B532" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>526</v>
+      </c>
+      <c r="B533" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>526</v>
+      </c>
+      <c r="B534" t="s">
+        <v>542</v>
+      </c>
+      <c r="C534" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>526</v>
+      </c>
+      <c r="B535" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>526</v>
+      </c>
+      <c r="B536" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>526</v>
+      </c>
+      <c r="B537" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>526</v>
+      </c>
+      <c r="B538" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>526</v>
+      </c>
+      <c r="B539" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>526</v>
+      </c>
+      <c r="B540" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>526</v>
+      </c>
+      <c r="B541" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>526</v>
+      </c>
+      <c r="B542" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>526</v>
+      </c>
+      <c r="B543" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>526</v>
+      </c>
+      <c r="B544" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>526</v>
+      </c>
+      <c r="B545" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>526</v>
+      </c>
+      <c r="B546" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>526</v>
+      </c>
+      <c r="B547" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>526</v>
+      </c>
+      <c r="B548" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>526</v>
+      </c>
+      <c r="B549" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>526</v>
+      </c>
+      <c r="B550" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>526</v>
+      </c>
+      <c r="B551" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>526</v>
+      </c>
+      <c r="B552" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>526</v>
+      </c>
+      <c r="B553" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>526</v>
+      </c>
+      <c r="B554" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>526</v>
+      </c>
+      <c r="B555" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>526</v>
+      </c>
+      <c r="B556" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>526</v>
+      </c>
+      <c r="B557" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>526</v>
+      </c>
+      <c r="B558" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>526</v>
+      </c>
+      <c r="B559" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>526</v>
+      </c>
+      <c r="B560" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>526</v>
+      </c>
+      <c r="B561" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>526</v>
+      </c>
+      <c r="B562" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>526</v>
+      </c>
+      <c r="B563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>526</v>
+      </c>
+      <c r="B564" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>526</v>
+      </c>
+      <c r="B565" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>526</v>
+      </c>
+      <c r="B566" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>526</v>
+      </c>
+      <c r="B567" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>526</v>
+      </c>
+      <c r="B568" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>526</v>
+      </c>
+      <c r="B569" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>526</v>
+      </c>
+      <c r="B570" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>526</v>
+      </c>
+      <c r="B571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>526</v>
+      </c>
+      <c r="B572" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>526</v>
+      </c>
+      <c r="B573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>526</v>
+      </c>
+      <c r="B574" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>526</v>
+      </c>
+      <c r="B575" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>526</v>
+      </c>
+      <c r="B576" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>526</v>
+      </c>
+      <c r="B577" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>526</v>
+      </c>
+      <c r="B578" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>526</v>
+      </c>
+      <c r="B579" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>526</v>
+      </c>
+      <c r="B580" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>526</v>
+      </c>
+      <c r="B581" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>526</v>
+      </c>
+      <c r="B582" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>526</v>
+      </c>
+      <c r="B583" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>526</v>
+      </c>
+      <c r="B584" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>526</v>
+      </c>
+      <c r="B585" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>526</v>
+      </c>
+      <c r="B586" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>526</v>
+      </c>
+      <c r="B587" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>526</v>
+      </c>
+      <c r="B588" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>526</v>
+      </c>
+      <c r="B589" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>526</v>
+      </c>
+      <c r="B590" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>526</v>
+      </c>
+      <c r="B591" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>526</v>
+      </c>
+      <c r="B592" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>526</v>
+      </c>
+      <c r="B593" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>526</v>
+      </c>
+      <c r="B594" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>526</v>
+      </c>
+      <c r="B595" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>526</v>
+      </c>
+      <c r="B596" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>526</v>
+      </c>
+      <c r="B597" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>526</v>
+      </c>
+      <c r="B598" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>526</v>
+      </c>
+      <c r="B599" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>526</v>
+      </c>
+      <c r="B600" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>526</v>
+      </c>
+      <c r="B601" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>526</v>
+      </c>
+      <c r="B602" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>526</v>
+      </c>
+      <c r="B603" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>526</v>
+      </c>
+      <c r="B604" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>526</v>
+      </c>
+      <c r="B605" t="s">
+        <v>613</v>
+      </c>
+      <c r="C605" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>526</v>
+      </c>
+      <c r="B606" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>526</v>
+      </c>
+      <c r="B607" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>526</v>
+      </c>
+      <c r="B608" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>526</v>
+      </c>
+      <c r="B609" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>526</v>
+      </c>
+      <c r="B610" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>526</v>
+      </c>
+      <c r="B611" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>526</v>
+      </c>
+      <c r="B612" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>526</v>
+      </c>
+      <c r="B613" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>526</v>
+      </c>
+      <c r="B614" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>526</v>
+      </c>
+      <c r="B615" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>526</v>
+      </c>
+      <c r="B616" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>526</v>
+      </c>
+      <c r="B617" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>526</v>
+      </c>
+      <c r="B618" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>526</v>
+      </c>
+      <c r="B619" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>526</v>
+      </c>
+      <c r="B620" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>526</v>
+      </c>
+      <c r="B621" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>526</v>
+      </c>
+      <c r="B622" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>526</v>
+      </c>
+      <c r="B623" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>526</v>
+      </c>
+      <c r="B624" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>526</v>
+      </c>
+      <c r="B625" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>526</v>
+      </c>
+      <c r="B626" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>526</v>
+      </c>
+      <c r="B627" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>526</v>
+      </c>
+      <c r="B628" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>526</v>
+      </c>
+      <c r="B629" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>526</v>
+      </c>
+      <c r="B630" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>526</v>
+      </c>
+      <c r="B631" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>526</v>
+      </c>
+      <c r="B632" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>526</v>
+      </c>
+      <c r="B633" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>526</v>
+      </c>
+      <c r="B634" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>526</v>
+      </c>
+      <c r="B635" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>526</v>
+      </c>
+      <c r="B636" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>526</v>
+      </c>
+      <c r="B637" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
+        <v>526</v>
+      </c>
+      <c r="B638" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>526</v>
+      </c>
+      <c r="B639" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>526</v>
+      </c>
+      <c r="B640" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>526</v>
+      </c>
+      <c r="B641" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>526</v>
+      </c>
+      <c r="B642" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>526</v>
+      </c>
+      <c r="B643" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>526</v>
+      </c>
+      <c r="B644" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>653</v>
+      </c>
+      <c r="B645" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>653</v>
+      </c>
+      <c r="B646" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>653</v>
+      </c>
+      <c r="B647" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>653</v>
+      </c>
+      <c r="B648" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>653</v>
+      </c>
+      <c r="B649" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>653</v>
+      </c>
+      <c r="B650" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>653</v>
+      </c>
+      <c r="B651" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>653</v>
+      </c>
+      <c r="B652" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>653</v>
+      </c>
+      <c r="B653" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>653</v>
+      </c>
+      <c r="B654" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>653</v>
+      </c>
+      <c r="B655" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>653</v>
+      </c>
+      <c r="B656" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>653</v>
+      </c>
+      <c r="B657" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>653</v>
+      </c>
+      <c r="B658" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>653</v>
+      </c>
+      <c r="B659" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>653</v>
+      </c>
+      <c r="B660" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>653</v>
+      </c>
+      <c r="B661" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>653</v>
+      </c>
+      <c r="B662" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>653</v>
+      </c>
+      <c r="B663" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>653</v>
+      </c>
+      <c r="B664" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>653</v>
+      </c>
+      <c r="B665" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>653</v>
+      </c>
+      <c r="B666" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>653</v>
+      </c>
+      <c r="B667" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>653</v>
+      </c>
+      <c r="B668" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>653</v>
+      </c>
+      <c r="B669" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>653</v>
+      </c>
+      <c r="B670" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>653</v>
+      </c>
+      <c r="B671" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>653</v>
+      </c>
+      <c r="B672" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>653</v>
+      </c>
+      <c r="B673" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>653</v>
+      </c>
+      <c r="B674" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>653</v>
+      </c>
+      <c r="B675" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>653</v>
+      </c>
+      <c r="B676" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>653</v>
+      </c>
+      <c r="B677" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>653</v>
+      </c>
+      <c r="B678" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>653</v>
+      </c>
+      <c r="B679" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>653</v>
+      </c>
+      <c r="B680" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>653</v>
+      </c>
+      <c r="B681" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>653</v>
+      </c>
+      <c r="B682" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>653</v>
+      </c>
+      <c r="B683" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>653</v>
+      </c>
+      <c r="B684" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>653</v>
+      </c>
+      <c r="B685" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>653</v>
+      </c>
+      <c r="B686" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>653</v>
+      </c>
+      <c r="B687" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>653</v>
+      </c>
+      <c r="B688" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>653</v>
+      </c>
+      <c r="B689" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>653</v>
+      </c>
+      <c r="B690" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>653</v>
+      </c>
+      <c r="B691" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>653</v>
+      </c>
+      <c r="B692" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>653</v>
+      </c>
+      <c r="B693" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>653</v>
+      </c>
+      <c r="B694" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>653</v>
+      </c>
+      <c r="B695" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>653</v>
+      </c>
+      <c r="B696" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>653</v>
+      </c>
+      <c r="B697" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>653</v>
+      </c>
+      <c r="B698" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>653</v>
+      </c>
+      <c r="B699" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>653</v>
+      </c>
+      <c r="B700" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>653</v>
+      </c>
+      <c r="B701" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>653</v>
+      </c>
+      <c r="B702" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>653</v>
+      </c>
+      <c r="B703" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>653</v>
+      </c>
+      <c r="B704" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>653</v>
+      </c>
+      <c r="B705" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>653</v>
+      </c>
+      <c r="B706" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>653</v>
+      </c>
+      <c r="B707" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>653</v>
+      </c>
+      <c r="B708" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>653</v>
+      </c>
+      <c r="B709" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>653</v>
+      </c>
+      <c r="B710" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>653</v>
+      </c>
+      <c r="B711" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>653</v>
+      </c>
+      <c r="B712" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>653</v>
+      </c>
+      <c r="B713" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>653</v>
+      </c>
+      <c r="B714" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>653</v>
+      </c>
+      <c r="B715" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>653</v>
+      </c>
+      <c r="B716" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>653</v>
+      </c>
+      <c r="B717" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>653</v>
+      </c>
+      <c r="B718" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>653</v>
+      </c>
+      <c r="B719" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>653</v>
+      </c>
+      <c r="B720" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>653</v>
+      </c>
+      <c r="B721" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>653</v>
+      </c>
+      <c r="B722" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>653</v>
+      </c>
+      <c r="B723" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>653</v>
+      </c>
+      <c r="B724" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>653</v>
+      </c>
+      <c r="B725" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>653</v>
+      </c>
+      <c r="B726" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>653</v>
+      </c>
+      <c r="B727" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>653</v>
+      </c>
+      <c r="B728" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>653</v>
+      </c>
+      <c r="B729" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>653</v>
+      </c>
+      <c r="B730" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>653</v>
+      </c>
+      <c r="B731" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>653</v>
+      </c>
+      <c r="B732" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>653</v>
+      </c>
+      <c r="B733" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>653</v>
+      </c>
+      <c r="B734" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>653</v>
+      </c>
+      <c r="B735" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>653</v>
+      </c>
+      <c r="B736" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>653</v>
+      </c>
+      <c r="B737" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>653</v>
+      </c>
+      <c r="B738" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>653</v>
+      </c>
+      <c r="B739" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>653</v>
+      </c>
+      <c r="B740" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>653</v>
+      </c>
+      <c r="B741" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>653</v>
+      </c>
+      <c r="B742" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>653</v>
+      </c>
+      <c r="B743" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>653</v>
+      </c>
+      <c r="B744" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>653</v>
+      </c>
+      <c r="B745" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>653</v>
+      </c>
+      <c r="B746" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>653</v>
+      </c>
+      <c r="B747" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>653</v>
+      </c>
+      <c r="B748" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>653</v>
+      </c>
+      <c r="B749" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>653</v>
+      </c>
+      <c r="B750" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>653</v>
+      </c>
+      <c r="B751" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>653</v>
+      </c>
+      <c r="B752" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>653</v>
+      </c>
+      <c r="B753" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>653</v>
+      </c>
+      <c r="B754" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>653</v>
+      </c>
+      <c r="B755" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>653</v>
+      </c>
+      <c r="B756" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>653</v>
+      </c>
+      <c r="B757" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>653</v>
+      </c>
+      <c r="B758" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>653</v>
+      </c>
+      <c r="B759" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>653</v>
+      </c>
+      <c r="B760" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>653</v>
+      </c>
+      <c r="B761" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>653</v>
+      </c>
+      <c r="B762" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>653</v>
+      </c>
+      <c r="B763" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>653</v>
+      </c>
+      <c r="B764" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>653</v>
+      </c>
+      <c r="B765" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>653</v>
+      </c>
+      <c r="B766" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>653</v>
+      </c>
+      <c r="B767" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>653</v>
+      </c>
+      <c r="B768" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>653</v>
+      </c>
+      <c r="B769" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>653</v>
+      </c>
+      <c r="B770" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>653</v>
+      </c>
+      <c r="B771" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>653</v>
+      </c>
+      <c r="B772" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>653</v>
+      </c>
+      <c r="B773" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>653</v>
+      </c>
+      <c r="B774" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>653</v>
+      </c>
+      <c r="B775" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>653</v>
+      </c>
+      <c r="B776" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>653</v>
+      </c>
+      <c r="B777" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>653</v>
+      </c>
+      <c r="B778" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>653</v>
+      </c>
+      <c r="B779" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>653</v>
+      </c>
+      <c r="B780" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>653</v>
+      </c>
+      <c r="B781" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>653</v>
+      </c>
+      <c r="B782" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>653</v>
+      </c>
+      <c r="B783" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>653</v>
+      </c>
+      <c r="B784" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>653</v>
+      </c>
+      <c r="B785" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>653</v>
+      </c>
+      <c r="B786" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>653</v>
+      </c>
+      <c r="B787" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>653</v>
+      </c>
+      <c r="B788" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>653</v>
+      </c>
+      <c r="B789" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>653</v>
+      </c>
+      <c r="B790" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>653</v>
+      </c>
+      <c r="B791" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>653</v>
+      </c>
+      <c r="B792" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>653</v>
+      </c>
+      <c r="B793" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>653</v>
+      </c>
+      <c r="B794" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>653</v>
+      </c>
+      <c r="B795" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>653</v>
+      </c>
+      <c r="B796" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>653</v>
+      </c>
+      <c r="B797" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>653</v>
+      </c>
+      <c r="B798" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>653</v>
+      </c>
+      <c r="B799" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>653</v>
+      </c>
+      <c r="B800" t="s">
+        <v>809</v>
+      </c>
+      <c r="C800" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>653</v>
+      </c>
+      <c r="B801" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>653</v>
+      </c>
+      <c r="B802" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>653</v>
+      </c>
+      <c r="B803" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>653</v>
+      </c>
+      <c r="B804" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>653</v>
+      </c>
+      <c r="B805" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>653</v>
+      </c>
+      <c r="B806" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>653</v>
+      </c>
+      <c r="B807" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>653</v>
+      </c>
+      <c r="B808" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>653</v>
+      </c>
+      <c r="B809" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>653</v>
+      </c>
+      <c r="B810" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>653</v>
+      </c>
+      <c r="B811" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>653</v>
+      </c>
+      <c r="B812" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>653</v>
+      </c>
+      <c r="B813" t="s">
+        <v>822</v>
+      </c>
+      <c r="C813" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>653</v>
+      </c>
+      <c r="B814" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>653</v>
+      </c>
+      <c r="B815" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>653</v>
+      </c>
+      <c r="B816" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>653</v>
+      </c>
+      <c r="B817" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>653</v>
+      </c>
+      <c r="B818" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>653</v>
+      </c>
+      <c r="B819" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>653</v>
+      </c>
+      <c r="B820" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>653</v>
+      </c>
+      <c r="B821" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>653</v>
+      </c>
+      <c r="B822" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>653</v>
+      </c>
+      <c r="B823" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>653</v>
+      </c>
+      <c r="B824" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>834</v>
+      </c>
+      <c r="B825" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>834</v>
+      </c>
+      <c r="B826" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>834</v>
+      </c>
+      <c r="B827" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>834</v>
+      </c>
+      <c r="B828" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>834</v>
+      </c>
+      <c r="B829" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>834</v>
+      </c>
+      <c r="B830" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>834</v>
+      </c>
+      <c r="B831" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>834</v>
+      </c>
+      <c r="B832" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>834</v>
+      </c>
+      <c r="B833" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>834</v>
+      </c>
+      <c r="B834" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>834</v>
+      </c>
+      <c r="B835" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>834</v>
+      </c>
+      <c r="B836" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>834</v>
+      </c>
+      <c r="B837" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>834</v>
+      </c>
+      <c r="B838" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>834</v>
+      </c>
+      <c r="B839" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>834</v>
+      </c>
+      <c r="B840" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>834</v>
+      </c>
+      <c r="B841" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>834</v>
+      </c>
+      <c r="B842" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>834</v>
+      </c>
+      <c r="B843" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>834</v>
+      </c>
+      <c r="B844" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>834</v>
+      </c>
+      <c r="B845" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>834</v>
+      </c>
+      <c r="B846" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>834</v>
+      </c>
+      <c r="B847" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>834</v>
+      </c>
+      <c r="B848" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>834</v>
+      </c>
+      <c r="B849" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>834</v>
+      </c>
+      <c r="B850" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>834</v>
+      </c>
+      <c r="B851" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>834</v>
+      </c>
+      <c r="B852" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>834</v>
+      </c>
+      <c r="B853" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>834</v>
+      </c>
+      <c r="B854" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>834</v>
+      </c>
+      <c r="B855" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>834</v>
+      </c>
+      <c r="B856" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>834</v>
+      </c>
+      <c r="B857" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>834</v>
+      </c>
+      <c r="B858" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>834</v>
+      </c>
+      <c r="B859" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>834</v>
+      </c>
+      <c r="B860" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>834</v>
+      </c>
+      <c r="B861" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>834</v>
+      </c>
+      <c r="B862" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>834</v>
+      </c>
+      <c r="B863" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>834</v>
+      </c>
+      <c r="B864" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>834</v>
+      </c>
+      <c r="B865" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>834</v>
+      </c>
+      <c r="B866" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>834</v>
+      </c>
+      <c r="B867" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>834</v>
+      </c>
+      <c r="B868" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>834</v>
+      </c>
+      <c r="B869" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>834</v>
+      </c>
+      <c r="B870" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>834</v>
+      </c>
+      <c r="B871" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>834</v>
+      </c>
+      <c r="B872" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>834</v>
+      </c>
+      <c r="B873" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>834</v>
+      </c>
+      <c r="B874" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>834</v>
+      </c>
+      <c r="B875" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>834</v>
+      </c>
+      <c r="B876" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>834</v>
+      </c>
+      <c r="B877" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>834</v>
+      </c>
+      <c r="B878" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>834</v>
+      </c>
+      <c r="B879" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>834</v>
+      </c>
+      <c r="B880" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>834</v>
+      </c>
+      <c r="B881" t="s">
+        <v>891</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C386" xr:uid="{ED44AD21-424B-4A23-97A1-8AC2C0B1EF3E}"/>
+  <autoFilter ref="A1:C881" xr:uid="{C6D71840-BF31-48E0-8DD3-E6430A99489B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sli_measures.xlsx
+++ b/sli_measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa0eda03202f8011/BI/Repo/asc-localities-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E807E18D-87DF-4EBB-A06D-B1A8601C217D}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82B92CC-60B4-4DB5-A8FE-F1D9CAA8CD11}"/>
   <bookViews>
-    <workbookView xWindow="-57120" yWindow="-120" windowWidth="28440" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28440" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="893">
   <si>
     <t>theme</t>
   </si>
@@ -3091,8 +3091,8 @@
   <dimension ref="A1:C881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:A2"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3361,7 +3361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3417,15 +3417,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -3441,7 +3444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3449,7 +3452,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3465,7 +3468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3473,7 +3476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -3753,7 +3756,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3777,7 +3780,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3785,7 +3788,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3793,7 +3796,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3801,7 +3804,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3809,7 +3812,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3817,15 +3820,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3</v>
       </c>
       <c r="B90" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3841,7 +3847,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3849,15 +3855,18 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
       <c r="B94" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3865,7 +3874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -7722,7 +7731,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>526</v>
       </c>
@@ -7730,7 +7739,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>526</v>
       </c>
@@ -7738,7 +7747,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>526</v>
       </c>
@@ -7746,7 +7755,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>526</v>
       </c>
@@ -7754,7 +7763,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>526</v>
       </c>
@@ -7762,7 +7771,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>526</v>
       </c>
@@ -7770,7 +7779,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>526</v>
       </c>
@@ -7778,7 +7787,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>526</v>
       </c>
@@ -7786,7 +7795,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>526</v>
       </c>
@@ -7794,7 +7803,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>526</v>
       </c>
@@ -7802,15 +7811,18 @@
         <v>594</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>526</v>
       </c>
       <c r="B587" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C587" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>526</v>
       </c>
@@ -7818,7 +7830,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>526</v>
       </c>
@@ -7826,7 +7838,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>526</v>
       </c>
@@ -7834,7 +7846,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>526</v>
       </c>
@@ -7842,7 +7854,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>526</v>
       </c>
@@ -8109,7 +8121,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>526</v>
       </c>
@@ -8117,7 +8129,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>526</v>
       </c>
@@ -8125,7 +8137,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>526</v>
       </c>
@@ -8133,7 +8145,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>526</v>
       </c>
@@ -8141,7 +8153,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>526</v>
       </c>
@@ -8149,7 +8161,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>526</v>
       </c>
@@ -8157,7 +8169,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>526</v>
       </c>
@@ -8165,7 +8177,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>526</v>
       </c>
@@ -8173,7 +8185,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>526</v>
       </c>
@@ -8181,7 +8193,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>526</v>
       </c>
@@ -8189,7 +8201,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>526</v>
       </c>
@@ -8197,7 +8209,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>526</v>
       </c>
@@ -8205,7 +8217,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>526</v>
       </c>
@@ -8213,7 +8225,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>526</v>
       </c>
@@ -8221,20 +8233,26 @@
         <v>646</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>526</v>
       </c>
       <c r="B639" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C639" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>526</v>
       </c>
       <c r="B640" t="s">
         <v>648</v>
+      </c>
+      <c r="C640" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.3">

--- a/sli_measures.xlsx
+++ b/sli_measures.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa0eda03202f8011/BI/Repo/asc-localities-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B82B92CC-60B4-4DB5-A8FE-F1D9CAA8CD11}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C1A0DE-EE1C-439E-83F9-F7102A1DD989}"/>
   <bookViews>
-    <workbookView xWindow="-28440" yWindow="-120" windowWidth="28560" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="444" yWindow="-108" windowWidth="22704" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$881</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$881</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="897">
   <si>
     <t>theme</t>
   </si>
@@ -2702,6 +2702,18 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>small percentage</t>
   </si>
 </sst>
 </file>
@@ -3088,11 +3100,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C881"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D886" sqref="D886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,9 +3113,10 @@
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="133.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3112,8 +3126,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3121,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3137,7 +3154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3145,7 +3162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3153,7 +3170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3161,7 +3178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3169,7 +3186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3177,7 +3194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3185,7 +3202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3193,7 +3210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3201,7 +3218,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3217,7 +3234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3225,7 +3242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3233,7 +3250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -3241,7 +3258,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3274,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -3265,7 +3282,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3273,7 +3290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3281,7 +3298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3297,7 +3314,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -3305,7 +3322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3313,7 +3330,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -3321,7 +3338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3329,7 +3346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -3337,7 +3354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -3345,7 +3362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -3353,7 +3370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>3</v>
       </c>
@@ -3361,7 +3378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3369,7 +3386,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3377,7 +3394,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -3385,7 +3402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3393,7 +3410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3401,7 +3418,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3409,7 +3426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3417,7 +3434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3427,8 +3444,11 @@
       <c r="C40" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3436,7 +3456,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -3444,7 +3464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3452,7 +3472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3460,7 +3480,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3468,7 +3488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3476,7 +3496,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3484,7 +3504,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -3492,7 +3512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -3500,7 +3520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -3508,7 +3528,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -3516,7 +3536,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3544,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3532,7 +3552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -3540,7 +3560,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
@@ -3548,7 +3568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -3556,7 +3576,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
@@ -3564,7 +3584,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>3</v>
       </c>
@@ -3572,7 +3592,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>3</v>
       </c>
@@ -3580,7 +3600,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>3</v>
       </c>
@@ -3588,7 +3608,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>3</v>
       </c>
@@ -3604,7 +3624,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -3612,7 +3632,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3620,7 +3640,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -3628,7 +3648,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -3636,7 +3656,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -3644,7 +3664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -3652,7 +3672,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>3</v>
       </c>
@@ -3660,7 +3680,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +3688,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -3676,7 +3696,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -3684,7 +3704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>3</v>
       </c>
@@ -3692,7 +3712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>3</v>
       </c>
@@ -3700,7 +3720,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -3708,7 +3728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>3</v>
       </c>
@@ -3716,7 +3736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>3</v>
       </c>
@@ -3724,7 +3744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -3732,7 +3752,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3</v>
       </c>
@@ -3740,7 +3760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>3</v>
       </c>
@@ -3748,7 +3768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -3756,7 +3776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3764,7 +3784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -3772,7 +3792,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3780,7 +3800,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3788,7 +3808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3816,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3804,7 +3824,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3812,7 +3832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3820,7 +3840,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3830,8 +3850,11 @@
       <c r="C90" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3839,7 +3862,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3847,7 +3870,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3855,7 +3878,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3865,8 +3888,11 @@
       <c r="C94" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +3900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -3882,7 +3908,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>3</v>
       </c>
@@ -3890,7 +3916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>3</v>
       </c>
@@ -3898,7 +3924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>3</v>
       </c>
@@ -3906,7 +3932,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>3</v>
       </c>
@@ -3914,7 +3940,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>3</v>
       </c>
@@ -3922,7 +3948,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>3</v>
       </c>
@@ -3930,7 +3956,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>3</v>
       </c>
@@ -3938,7 +3964,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>3</v>
       </c>
@@ -3946,7 +3972,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>3</v>
       </c>
@@ -3954,7 +3980,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -3962,7 +3988,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>3</v>
       </c>
@@ -3970,7 +3996,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>3</v>
       </c>
@@ -3978,7 +4004,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>3</v>
       </c>
@@ -3986,7 +4012,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>3</v>
       </c>
@@ -3994,7 +4020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4028,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -4010,7 +4036,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -4018,7 +4044,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -4026,7 +4052,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -4034,7 +4060,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -4042,7 +4068,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -4050,7 +4076,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -4058,7 +4084,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -4066,7 +4092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -4074,7 +4100,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -4082,7 +4108,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -4090,7 +4116,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -4098,7 +4124,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -4106,7 +4132,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -4114,7 +4140,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -4122,7 +4148,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -4130,7 +4156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4164,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -4146,7 +4172,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -4154,7 +4180,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>132</v>
       </c>
@@ -4162,7 +4188,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>132</v>
       </c>
@@ -4170,7 +4196,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -4178,7 +4204,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -4186,7 +4212,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -4194,7 +4220,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>132</v>
       </c>
@@ -4202,7 +4228,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>132</v>
       </c>
@@ -4210,7 +4236,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>132</v>
       </c>
@@ -4218,7 +4244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>132</v>
       </c>
@@ -4226,7 +4252,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>132</v>
       </c>
@@ -4234,7 +4260,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>132</v>
       </c>
@@ -4242,7 +4268,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>132</v>
       </c>
@@ -4250,7 +4276,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>132</v>
       </c>
@@ -4258,7 +4284,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>132</v>
       </c>
@@ -4266,7 +4292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -4274,7 +4300,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -4282,7 +4308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>148</v>
       </c>
@@ -4290,7 +4316,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>148</v>
       </c>
@@ -4298,7 +4324,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -4306,7 +4332,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4314,7 +4340,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>148</v>
       </c>
@@ -4322,7 +4348,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -4330,7 +4356,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>148</v>
       </c>
@@ -4338,7 +4364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>148</v>
       </c>
@@ -4346,7 +4372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>148</v>
       </c>
@@ -4354,7 +4380,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>148</v>
       </c>
@@ -4362,7 +4388,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>148</v>
       </c>
@@ -4370,7 +4396,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>148</v>
       </c>
@@ -4378,7 +4404,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>148</v>
       </c>
@@ -4386,7 +4412,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>148</v>
       </c>
@@ -4394,7 +4420,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>148</v>
       </c>
@@ -4402,7 +4428,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -4410,7 +4436,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>148</v>
       </c>
@@ -4418,7 +4444,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>148</v>
       </c>
@@ -4426,7 +4452,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>148</v>
       </c>
@@ -4434,7 +4460,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>148</v>
       </c>
@@ -4442,7 +4468,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>148</v>
       </c>
@@ -4450,7 +4476,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>148</v>
       </c>
@@ -4458,7 +4484,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>148</v>
       </c>
@@ -4466,7 +4492,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>148</v>
       </c>
@@ -4474,7 +4500,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>148</v>
       </c>
@@ -4482,7 +4508,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>148</v>
       </c>
@@ -4490,7 +4516,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>148</v>
       </c>
@@ -4498,7 +4524,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>148</v>
       </c>
@@ -4506,7 +4532,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>148</v>
       </c>
@@ -4516,8 +4542,11 @@
       <c r="C175" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D175" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>148</v>
       </c>
@@ -4527,8 +4556,11 @@
       <c r="C176" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D176" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>148</v>
       </c>
@@ -4536,7 +4568,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>148</v>
       </c>
@@ -4544,7 +4576,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>148</v>
       </c>
@@ -4552,7 +4584,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>148</v>
       </c>
@@ -4560,7 +4592,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>148</v>
       </c>
@@ -4568,7 +4600,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>148</v>
       </c>
@@ -4576,7 +4608,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>148</v>
       </c>
@@ -4584,7 +4616,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>148</v>
       </c>
@@ -4592,7 +4624,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -4600,7 +4632,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>148</v>
       </c>
@@ -4608,7 +4640,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>148</v>
       </c>
@@ -4616,7 +4648,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>148</v>
       </c>
@@ -4624,7 +4656,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>148</v>
       </c>
@@ -4632,7 +4664,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>148</v>
       </c>
@@ -4640,7 +4672,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>148</v>
       </c>
@@ -4648,7 +4680,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>148</v>
       </c>
@@ -4656,7 +4688,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>148</v>
       </c>
@@ -4664,7 +4696,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>148</v>
       </c>
@@ -4672,7 +4704,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>148</v>
       </c>
@@ -4680,7 +4712,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>148</v>
       </c>
@@ -4688,7 +4720,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>148</v>
       </c>
@@ -4696,7 +4728,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>148</v>
       </c>
@@ -4704,7 +4736,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>148</v>
       </c>
@@ -4712,7 +4744,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>148</v>
       </c>
@@ -4720,7 +4752,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>148</v>
       </c>
@@ -4728,7 +4760,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>148</v>
       </c>
@@ -4736,7 +4768,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>148</v>
       </c>
@@ -4744,7 +4776,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>148</v>
       </c>
@@ -4752,7 +4784,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>148</v>
       </c>
@@ -4760,7 +4792,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>148</v>
       </c>
@@ -4768,7 +4800,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>148</v>
       </c>
@@ -4776,7 +4808,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>148</v>
       </c>
@@ -4784,7 +4816,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>148</v>
       </c>
@@ -4792,7 +4824,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>148</v>
       </c>
@@ -4800,7 +4832,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>148</v>
       </c>
@@ -4808,7 +4840,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>148</v>
       </c>
@@ -4816,7 +4848,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>148</v>
       </c>
@@ -4824,7 +4856,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>148</v>
       </c>
@@ -4832,7 +4864,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>148</v>
       </c>
@@ -4840,7 +4872,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>148</v>
       </c>
@@ -4848,7 +4880,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>148</v>
       </c>
@@ -4856,7 +4888,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>148</v>
       </c>
@@ -4864,7 +4896,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>148</v>
       </c>
@@ -4872,7 +4904,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>148</v>
       </c>
@@ -4880,7 +4912,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>148</v>
       </c>
@@ -4888,7 +4920,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>148</v>
       </c>
@@ -4896,7 +4928,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>148</v>
       </c>
@@ -4904,7 +4936,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>228</v>
       </c>
@@ -4912,7 +4944,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -4920,7 +4952,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -4928,7 +4960,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>228</v>
       </c>
@@ -4936,7 +4968,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>228</v>
       </c>
@@ -4944,7 +4976,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -4952,7 +4984,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4960,7 +4992,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>228</v>
       </c>
@@ -4968,7 +5000,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>228</v>
       </c>
@@ -4976,7 +5008,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>228</v>
       </c>
@@ -4984,7 +5016,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>228</v>
       </c>
@@ -4992,7 +5024,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>228</v>
       </c>
@@ -5000,7 +5032,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>228</v>
       </c>
@@ -5008,7 +5040,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>228</v>
       </c>
@@ -5016,7 +5048,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>228</v>
       </c>
@@ -5024,7 +5056,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>228</v>
       </c>
@@ -5032,7 +5064,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>228</v>
       </c>
@@ -5040,7 +5072,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>228</v>
       </c>
@@ -5048,7 +5080,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>228</v>
       </c>
@@ -5056,7 +5088,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>228</v>
       </c>
@@ -5064,7 +5096,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>228</v>
       </c>
@@ -5072,7 +5104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>228</v>
       </c>
@@ -5080,7 +5112,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>228</v>
       </c>
@@ -5088,7 +5120,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>228</v>
       </c>
@@ -5096,7 +5128,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>228</v>
       </c>
@@ -5104,7 +5136,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>228</v>
       </c>
@@ -5112,7 +5144,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>228</v>
       </c>
@@ -5120,7 +5152,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>228</v>
       </c>
@@ -5128,7 +5160,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>228</v>
       </c>
@@ -5136,7 +5168,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>228</v>
       </c>
@@ -5144,7 +5176,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>228</v>
       </c>
@@ -5152,7 +5184,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -5160,7 +5192,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>228</v>
       </c>
@@ -5168,7 +5200,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>228</v>
       </c>
@@ -5176,7 +5208,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>228</v>
       </c>
@@ -5184,7 +5216,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>228</v>
       </c>
@@ -5192,7 +5224,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>228</v>
       </c>
@@ -5200,7 +5232,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>228</v>
       </c>
@@ -5208,7 +5240,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>228</v>
       </c>
@@ -5216,7 +5248,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>228</v>
       </c>
@@ -5224,7 +5256,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>228</v>
       </c>
@@ -5232,7 +5264,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>228</v>
       </c>
@@ -5240,7 +5272,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>228</v>
       </c>
@@ -5248,7 +5280,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>228</v>
       </c>
@@ -5256,7 +5288,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>228</v>
       </c>
@@ -5264,7 +5296,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>228</v>
       </c>
@@ -5272,7 +5304,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>228</v>
       </c>
@@ -5280,7 +5312,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>228</v>
       </c>
@@ -5288,7 +5320,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>228</v>
       </c>
@@ -5296,7 +5328,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>228</v>
       </c>
@@ -5304,7 +5336,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>228</v>
       </c>
@@ -5312,7 +5344,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>228</v>
       </c>
@@ -5320,7 +5352,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>228</v>
       </c>
@@ -5328,7 +5360,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>228</v>
       </c>
@@ -5336,7 +5368,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>228</v>
       </c>
@@ -5344,7 +5376,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>228</v>
       </c>
@@ -5352,7 +5384,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>228</v>
       </c>
@@ -5360,7 +5392,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>228</v>
       </c>
@@ -5368,7 +5400,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>228</v>
       </c>
@@ -5376,7 +5408,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>228</v>
       </c>
@@ -5384,7 +5416,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>228</v>
       </c>
@@ -5392,7 +5424,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>228</v>
       </c>
@@ -5400,7 +5432,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>228</v>
       </c>
@@ -5408,7 +5440,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>228</v>
       </c>
@@ -5416,7 +5448,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>228</v>
       </c>
@@ -5424,7 +5456,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>228</v>
       </c>
@@ -5432,7 +5464,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>228</v>
       </c>
@@ -5440,7 +5472,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>228</v>
       </c>
@@ -5448,7 +5480,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>228</v>
       </c>
@@ -5456,7 +5488,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>228</v>
       </c>
@@ -5464,7 +5496,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>228</v>
       </c>
@@ -5472,7 +5504,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>228</v>
       </c>
@@ -5480,7 +5512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>228</v>
       </c>
@@ -5488,7 +5520,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>228</v>
       </c>
@@ -5496,7 +5528,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>228</v>
       </c>
@@ -5504,7 +5536,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>228</v>
       </c>
@@ -5512,7 +5544,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>228</v>
       </c>
@@ -5520,7 +5552,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>228</v>
       </c>
@@ -5528,7 +5560,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>228</v>
       </c>
@@ -5536,7 +5568,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>228</v>
       </c>
@@ -5544,7 +5576,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>228</v>
       </c>
@@ -5552,7 +5584,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>228</v>
       </c>
@@ -5560,7 +5592,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>228</v>
       </c>
@@ -5568,7 +5600,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>228</v>
       </c>
@@ -5576,7 +5608,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>228</v>
       </c>
@@ -5584,7 +5616,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>228</v>
       </c>
@@ -5592,7 +5624,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>228</v>
       </c>
@@ -5600,7 +5632,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>228</v>
       </c>
@@ -5608,7 +5640,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>228</v>
       </c>
@@ -5616,7 +5648,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>228</v>
       </c>
@@ -5624,7 +5656,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>228</v>
       </c>
@@ -5632,7 +5664,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>228</v>
       </c>
@@ -5640,7 +5672,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>228</v>
       </c>
@@ -5648,7 +5680,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>228</v>
       </c>
@@ -5656,7 +5688,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>228</v>
       </c>
@@ -5664,7 +5696,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>228</v>
       </c>
@@ -5672,7 +5704,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>228</v>
       </c>
@@ -5680,7 +5712,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>228</v>
       </c>
@@ -5688,7 +5720,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>228</v>
       </c>
@@ -5696,7 +5728,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>228</v>
       </c>
@@ -5704,7 +5736,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>228</v>
       </c>
@@ -5712,7 +5744,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>228</v>
       </c>
@@ -5720,7 +5752,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>228</v>
       </c>
@@ -5728,7 +5760,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>228</v>
       </c>
@@ -5736,7 +5768,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>228</v>
       </c>
@@ -5744,7 +5776,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>228</v>
       </c>
@@ -5752,7 +5784,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>228</v>
       </c>
@@ -5760,7 +5792,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>228</v>
       </c>
@@ -5768,7 +5800,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>228</v>
       </c>
@@ -5776,7 +5808,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>228</v>
       </c>
@@ -5784,7 +5816,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>228</v>
       </c>
@@ -5792,7 +5824,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>228</v>
       </c>
@@ -5800,7 +5832,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>228</v>
       </c>
@@ -5808,7 +5840,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>228</v>
       </c>
@@ -5816,7 +5848,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>228</v>
       </c>
@@ -5824,7 +5856,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>228</v>
       </c>
@@ -5832,7 +5864,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>228</v>
       </c>
@@ -5840,7 +5872,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>228</v>
       </c>
@@ -5848,7 +5880,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>228</v>
       </c>
@@ -5856,7 +5888,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>228</v>
       </c>
@@ -5864,7 +5896,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>228</v>
       </c>
@@ -5872,7 +5904,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>228</v>
       </c>
@@ -5880,7 +5912,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>228</v>
       </c>
@@ -5888,7 +5920,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>228</v>
       </c>
@@ -5896,7 +5928,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>228</v>
       </c>
@@ -5904,7 +5936,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>228</v>
       </c>
@@ -5912,7 +5944,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>228</v>
       </c>
@@ -5920,7 +5952,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>228</v>
       </c>
@@ -5928,7 +5960,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>228</v>
       </c>
@@ -5936,7 +5968,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>228</v>
       </c>
@@ -5944,7 +5976,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>228</v>
       </c>
@@ -5952,7 +5984,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>228</v>
       </c>
@@ -5960,7 +5992,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>228</v>
       </c>
@@ -5968,7 +6000,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>228</v>
       </c>
@@ -5976,7 +6008,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>228</v>
       </c>
@@ -5984,7 +6016,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>228</v>
       </c>
@@ -5992,7 +6024,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>228</v>
       </c>
@@ -6000,7 +6032,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>228</v>
       </c>
@@ -6008,7 +6040,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>228</v>
       </c>
@@ -6016,7 +6048,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>228</v>
       </c>
@@ -6024,7 +6056,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>228</v>
       </c>
@@ -6032,7 +6064,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>228</v>
       </c>
@@ -6040,7 +6072,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>228</v>
       </c>
@@ -6048,7 +6080,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>228</v>
       </c>
@@ -6056,7 +6088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>228</v>
       </c>
@@ -6064,7 +6096,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>228</v>
       </c>
@@ -6072,7 +6104,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>228</v>
       </c>
@@ -6080,7 +6112,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>228</v>
       </c>
@@ -6088,7 +6120,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>228</v>
       </c>
@@ -6096,7 +6128,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>228</v>
       </c>
@@ -6104,7 +6136,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>228</v>
       </c>
@@ -6112,7 +6144,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>228</v>
       </c>
@@ -6120,7 +6152,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>228</v>
       </c>
@@ -6128,7 +6160,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>228</v>
       </c>
@@ -6136,7 +6168,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>228</v>
       </c>
@@ -6144,7 +6176,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>228</v>
       </c>
@@ -6152,7 +6184,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>228</v>
       </c>
@@ -6160,7 +6192,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>228</v>
       </c>
@@ -6168,7 +6200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>228</v>
       </c>
@@ -6176,7 +6208,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>228</v>
       </c>
@@ -6184,7 +6216,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>228</v>
       </c>
@@ -6192,7 +6224,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>228</v>
       </c>
@@ -6200,7 +6232,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>228</v>
       </c>
@@ -6208,7 +6240,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>228</v>
       </c>
@@ -6216,7 +6248,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>228</v>
       </c>
@@ -6224,7 +6256,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>228</v>
       </c>
@@ -6232,7 +6264,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>228</v>
       </c>
@@ -6240,7 +6272,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>228</v>
       </c>
@@ -6248,7 +6280,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>228</v>
       </c>
@@ -6256,7 +6288,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>398</v>
       </c>
@@ -6264,7 +6296,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>398</v>
       </c>
@@ -6272,7 +6304,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -6280,7 +6312,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -6288,7 +6320,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>398</v>
       </c>
@@ -6296,7 +6328,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>398</v>
       </c>
@@ -6304,7 +6336,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>398</v>
       </c>
@@ -6312,7 +6344,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -6320,7 +6352,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>398</v>
       </c>
@@ -6328,7 +6360,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>398</v>
       </c>
@@ -6336,7 +6368,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>398</v>
       </c>
@@ -6344,7 +6376,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>398</v>
       </c>
@@ -6352,7 +6384,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>398</v>
       </c>
@@ -6360,7 +6392,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>398</v>
       </c>
@@ -6368,7 +6400,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>398</v>
       </c>
@@ -6376,7 +6408,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>398</v>
       </c>
@@ -6384,7 +6416,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>398</v>
       </c>
@@ -6392,7 +6424,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>398</v>
       </c>
@@ -6400,7 +6432,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>398</v>
       </c>
@@ -6408,7 +6440,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>398</v>
       </c>
@@ -6416,7 +6448,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>398</v>
       </c>
@@ -6424,7 +6456,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>398</v>
       </c>
@@ -6432,7 +6464,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>398</v>
       </c>
@@ -6440,7 +6472,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>398</v>
       </c>
@@ -6448,7 +6480,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>398</v>
       </c>
@@ -6456,7 +6488,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>398</v>
       </c>
@@ -6464,7 +6496,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>398</v>
       </c>
@@ -6472,7 +6504,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>398</v>
       </c>
@@ -6480,7 +6512,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>398</v>
       </c>
@@ -6488,7 +6520,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>398</v>
       </c>
@@ -6496,7 +6528,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>398</v>
       </c>
@@ -6504,7 +6536,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>398</v>
       </c>
@@ -6512,7 +6544,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>398</v>
       </c>
@@ -6520,7 +6552,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>398</v>
       </c>
@@ -6528,7 +6560,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>398</v>
       </c>
@@ -6536,7 +6568,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>398</v>
       </c>
@@ -6544,7 +6576,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>398</v>
       </c>
@@ -6552,7 +6584,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>398</v>
       </c>
@@ -6560,7 +6592,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>398</v>
       </c>
@@ -6568,7 +6600,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>398</v>
       </c>
@@ -6576,7 +6608,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>398</v>
       </c>
@@ -6584,7 +6616,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>398</v>
       </c>
@@ -6592,7 +6624,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>398</v>
       </c>
@@ -6600,7 +6632,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>398</v>
       </c>
@@ -6608,7 +6640,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>398</v>
       </c>
@@ -6616,7 +6648,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>398</v>
       </c>
@@ -6624,7 +6656,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>445</v>
       </c>
@@ -6632,7 +6664,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>445</v>
       </c>
@@ -6640,7 +6672,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>445</v>
       </c>
@@ -6648,7 +6680,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>445</v>
       </c>
@@ -6656,7 +6688,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>445</v>
       </c>
@@ -6664,7 +6696,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>445</v>
       </c>
@@ -6672,7 +6704,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>445</v>
       </c>
@@ -6680,7 +6712,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>445</v>
       </c>
@@ -6688,7 +6720,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -6696,7 +6728,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>445</v>
       </c>
@@ -6704,7 +6736,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>445</v>
       </c>
@@ -6712,7 +6744,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>445</v>
       </c>
@@ -6720,7 +6752,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>445</v>
       </c>
@@ -6728,7 +6760,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>445</v>
       </c>
@@ -6736,7 +6768,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>445</v>
       </c>
@@ -6744,7 +6776,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>445</v>
       </c>
@@ -6752,7 +6784,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>445</v>
       </c>
@@ -6760,7 +6792,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>445</v>
       </c>
@@ -6768,7 +6800,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>445</v>
       </c>
@@ -6776,7 +6808,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>445</v>
       </c>
@@ -6784,7 +6816,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>445</v>
       </c>
@@ -6792,7 +6824,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>445</v>
       </c>
@@ -6800,7 +6832,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>445</v>
       </c>
@@ -6808,7 +6840,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>445</v>
       </c>
@@ -6816,7 +6848,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>445</v>
       </c>
@@ -6824,7 +6856,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>445</v>
       </c>
@@ -6832,7 +6864,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>445</v>
       </c>
@@ -6840,7 +6872,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>445</v>
       </c>
@@ -6848,7 +6880,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>445</v>
       </c>
@@ -6856,7 +6888,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>445</v>
       </c>
@@ -6864,7 +6896,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>445</v>
       </c>
@@ -6872,7 +6904,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>445</v>
       </c>
@@ -6880,7 +6912,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>445</v>
       </c>
@@ -6888,7 +6920,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>445</v>
       </c>
@@ -6896,7 +6928,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>445</v>
       </c>
@@ -6904,7 +6936,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>445</v>
       </c>
@@ -6912,7 +6944,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>445</v>
       </c>
@@ -6920,7 +6952,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>445</v>
       </c>
@@ -6928,7 +6960,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>445</v>
       </c>
@@ -6936,7 +6968,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>445</v>
       </c>
@@ -6944,7 +6976,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>445</v>
       </c>
@@ -6952,7 +6984,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>445</v>
       </c>
@@ -6960,7 +6992,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>445</v>
       </c>
@@ -6968,7 +7000,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>445</v>
       </c>
@@ -6976,7 +7008,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>445</v>
       </c>
@@ -6984,7 +7016,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>445</v>
       </c>
@@ -6992,7 +7024,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>445</v>
       </c>
@@ -7000,7 +7032,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>445</v>
       </c>
@@ -7008,7 +7040,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>445</v>
       </c>
@@ -7016,7 +7048,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>445</v>
       </c>
@@ -7024,7 +7056,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>445</v>
       </c>
@@ -7032,7 +7064,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>445</v>
       </c>
@@ -7040,7 +7072,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>445</v>
       </c>
@@ -7048,7 +7080,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>445</v>
       </c>
@@ -7056,7 +7088,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>445</v>
       </c>
@@ -7064,7 +7096,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>445</v>
       </c>
@@ -7072,7 +7104,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>445</v>
       </c>
@@ -7080,7 +7112,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>445</v>
       </c>
@@ -7088,7 +7120,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>445</v>
       </c>
@@ -7096,7 +7128,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>445</v>
       </c>
@@ -7104,7 +7136,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>445</v>
       </c>
@@ -7112,7 +7144,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>445</v>
       </c>
@@ -7120,7 +7152,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>445</v>
       </c>
@@ -7128,7 +7160,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>445</v>
       </c>
@@ -7136,7 +7168,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>445</v>
       </c>
@@ -7144,7 +7176,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>445</v>
       </c>
@@ -7152,7 +7184,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>445</v>
       </c>
@@ -7160,7 +7192,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>445</v>
       </c>
@@ -7168,7 +7200,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>445</v>
       </c>
@@ -7176,7 +7208,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>445</v>
       </c>
@@ -7184,7 +7216,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>445</v>
       </c>
@@ -7192,7 +7224,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>445</v>
       </c>
@@ -7200,7 +7232,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>445</v>
       </c>
@@ -7208,7 +7240,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>445</v>
       </c>
@@ -7216,7 +7248,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>445</v>
       </c>
@@ -7224,7 +7256,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>445</v>
       </c>
@@ -7232,7 +7264,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>445</v>
       </c>
@@ -7240,7 +7272,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>445</v>
       </c>
@@ -7248,7 +7280,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>445</v>
       </c>
@@ -7256,7 +7288,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>445</v>
       </c>
@@ -7264,7 +7296,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>526</v>
       </c>
@@ -7272,7 +7304,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>526</v>
       </c>
@@ -7280,7 +7312,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>526</v>
       </c>
@@ -7288,7 +7320,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>526</v>
       </c>
@@ -7296,7 +7328,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>526</v>
       </c>
@@ -7304,7 +7336,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>526</v>
       </c>
@@ -7312,7 +7344,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>526</v>
       </c>
@@ -7320,7 +7352,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>526</v>
       </c>
@@ -7328,7 +7360,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>526</v>
       </c>
@@ -7336,7 +7368,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>526</v>
       </c>
@@ -7344,7 +7376,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>526</v>
       </c>
@@ -7352,7 +7384,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>526</v>
       </c>
@@ -7360,7 +7392,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>526</v>
       </c>
@@ -7368,7 +7400,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>526</v>
       </c>
@@ -7376,7 +7408,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>526</v>
       </c>
@@ -7384,7 +7416,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>526</v>
       </c>
@@ -7394,8 +7426,11 @@
       <c r="C534" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D534" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>526</v>
       </c>
@@ -7403,7 +7438,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>526</v>
       </c>
@@ -7411,7 +7446,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>526</v>
       </c>
@@ -7419,7 +7454,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>526</v>
       </c>
@@ -7427,7 +7462,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>526</v>
       </c>
@@ -7435,7 +7470,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>526</v>
       </c>
@@ -7443,7 +7478,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>526</v>
       </c>
@@ -7451,7 +7486,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>526</v>
       </c>
@@ -7459,7 +7494,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>526</v>
       </c>
@@ -7467,7 +7502,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>526</v>
       </c>
@@ -7475,7 +7510,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>526</v>
       </c>
@@ -7483,7 +7518,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>526</v>
       </c>
@@ -7491,7 +7526,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>526</v>
       </c>
@@ -7499,7 +7534,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>526</v>
       </c>
@@ -7507,7 +7542,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>526</v>
       </c>
@@ -7515,7 +7550,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>526</v>
       </c>
@@ -7523,7 +7558,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>526</v>
       </c>
@@ -7531,7 +7566,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>526</v>
       </c>
@@ -7539,7 +7574,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>526</v>
       </c>
@@ -7547,7 +7582,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>526</v>
       </c>
@@ -7555,7 +7590,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>526</v>
       </c>
@@ -7563,7 +7598,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>526</v>
       </c>
@@ -7571,7 +7606,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>526</v>
       </c>
@@ -7579,7 +7614,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>526</v>
       </c>
@@ -7587,7 +7622,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>526</v>
       </c>
@@ -7595,7 +7630,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>526</v>
       </c>
@@ -7603,7 +7638,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>526</v>
       </c>
@@ -7611,7 +7646,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>526</v>
       </c>
@@ -7619,7 +7654,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>526</v>
       </c>
@@ -7627,7 +7662,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>526</v>
       </c>
@@ -7635,7 +7670,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>526</v>
       </c>
@@ -7643,7 +7678,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>526</v>
       </c>
@@ -7651,7 +7686,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>526</v>
       </c>
@@ -7659,7 +7694,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>526</v>
       </c>
@@ -7667,7 +7702,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>526</v>
       </c>
@@ -7675,7 +7710,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>526</v>
       </c>
@@ -7683,7 +7718,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>526</v>
       </c>
@@ -7691,7 +7726,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>526</v>
       </c>
@@ -7699,7 +7734,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>526</v>
       </c>
@@ -7707,7 +7742,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>526</v>
       </c>
@@ -7715,7 +7750,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>526</v>
       </c>
@@ -7723,7 +7758,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>526</v>
       </c>
@@ -7731,7 +7766,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>526</v>
       </c>
@@ -7739,7 +7774,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>526</v>
       </c>
@@ -7747,7 +7782,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>526</v>
       </c>
@@ -7755,7 +7790,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>526</v>
       </c>
@@ -7763,7 +7798,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>526</v>
       </c>
@@ -7771,7 +7806,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>526</v>
       </c>
@@ -7779,7 +7814,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>526</v>
       </c>
@@ -7787,7 +7822,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>526</v>
       </c>
@@ -7795,7 +7830,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>526</v>
       </c>
@@ -7803,7 +7838,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>526</v>
       </c>
@@ -7811,7 +7846,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>526</v>
       </c>
@@ -7821,8 +7856,11 @@
       <c r="C587" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D587" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>526</v>
       </c>
@@ -7830,7 +7868,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>526</v>
       </c>
@@ -7838,7 +7876,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>526</v>
       </c>
@@ -7846,7 +7884,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>526</v>
       </c>
@@ -7854,7 +7892,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>526</v>
       </c>
@@ -7862,7 +7900,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>526</v>
       </c>
@@ -7870,7 +7908,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>526</v>
       </c>
@@ -7878,7 +7916,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>526</v>
       </c>
@@ -7886,7 +7924,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>526</v>
       </c>
@@ -7894,7 +7932,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>526</v>
       </c>
@@ -7902,7 +7940,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>526</v>
       </c>
@@ -7910,7 +7948,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>526</v>
       </c>
@@ -7918,7 +7956,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>526</v>
       </c>
@@ -7926,7 +7964,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>526</v>
       </c>
@@ -7934,7 +7972,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>526</v>
       </c>
@@ -7942,7 +7980,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>526</v>
       </c>
@@ -7950,7 +7988,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>526</v>
       </c>
@@ -7958,7 +7996,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>526</v>
       </c>
@@ -7968,8 +8006,11 @@
       <c r="C605" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D605" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>526</v>
       </c>
@@ -7977,7 +8018,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>526</v>
       </c>
@@ -7985,7 +8026,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>526</v>
       </c>
@@ -7993,7 +8034,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>526</v>
       </c>
@@ -8001,7 +8042,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>526</v>
       </c>
@@ -8009,7 +8050,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>526</v>
       </c>
@@ -8017,7 +8058,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>526</v>
       </c>
@@ -8025,7 +8066,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>526</v>
       </c>
@@ -8033,7 +8074,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>526</v>
       </c>
@@ -8041,7 +8082,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>526</v>
       </c>
@@ -8049,7 +8090,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>526</v>
       </c>
@@ -8057,7 +8098,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>526</v>
       </c>
@@ -8065,7 +8106,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>526</v>
       </c>
@@ -8073,7 +8114,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>526</v>
       </c>
@@ -8081,7 +8122,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>526</v>
       </c>
@@ -8089,7 +8130,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>526</v>
       </c>
@@ -8097,7 +8138,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>526</v>
       </c>
@@ -8105,7 +8146,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>526</v>
       </c>
@@ -8113,7 +8154,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>526</v>
       </c>
@@ -8121,7 +8162,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>526</v>
       </c>
@@ -8129,7 +8170,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>526</v>
       </c>
@@ -8137,7 +8178,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>526</v>
       </c>
@@ -8145,7 +8186,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>526</v>
       </c>
@@ -8153,7 +8194,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>526</v>
       </c>
@@ -8161,7 +8202,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>526</v>
       </c>
@@ -8169,7 +8210,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>526</v>
       </c>
@@ -8177,7 +8218,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>526</v>
       </c>
@@ -8185,7 +8226,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>526</v>
       </c>
@@ -8193,7 +8234,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>526</v>
       </c>
@@ -8201,7 +8242,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>526</v>
       </c>
@@ -8209,7 +8250,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>526</v>
       </c>
@@ -8217,7 +8258,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>526</v>
       </c>
@@ -8225,7 +8266,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>526</v>
       </c>
@@ -8233,7 +8274,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>526</v>
       </c>
@@ -8243,8 +8284,11 @@
       <c r="C639" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D639" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>526</v>
       </c>
@@ -8254,8 +8298,11 @@
       <c r="C640" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D640" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>526</v>
       </c>
@@ -8263,7 +8310,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>526</v>
       </c>
@@ -8271,7 +8318,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>526</v>
       </c>
@@ -8279,7 +8326,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>526</v>
       </c>
@@ -8287,7 +8334,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>653</v>
       </c>
@@ -8295,7 +8342,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>653</v>
       </c>
@@ -8303,7 +8350,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>653</v>
       </c>
@@ -8311,7 +8358,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>653</v>
       </c>
@@ -8319,7 +8366,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" t="s">
         <v>653</v>
       </c>
@@ -8327,7 +8374,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>653</v>
       </c>
@@ -8335,7 +8382,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>653</v>
       </c>
@@ -8343,7 +8390,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>653</v>
       </c>
@@ -8351,7 +8398,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>653</v>
       </c>
@@ -8359,7 +8406,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>653</v>
       </c>
@@ -8367,7 +8414,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>653</v>
       </c>
@@ -8375,7 +8422,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>653</v>
       </c>
@@ -8383,7 +8430,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>653</v>
       </c>
@@ -8391,7 +8438,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>653</v>
       </c>
@@ -8399,7 +8446,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>653</v>
       </c>
@@ -8407,7 +8454,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>653</v>
       </c>
@@ -8415,7 +8462,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>653</v>
       </c>
@@ -8423,7 +8470,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>653</v>
       </c>
@@ -8431,7 +8478,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>653</v>
       </c>
@@ -8439,7 +8486,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>653</v>
       </c>
@@ -8447,7 +8494,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>653</v>
       </c>
@@ -8455,7 +8502,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>653</v>
       </c>
@@ -8463,7 +8510,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>653</v>
       </c>
@@ -8471,7 +8518,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>653</v>
       </c>
@@ -8479,7 +8526,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>653</v>
       </c>
@@ -8487,7 +8534,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>653</v>
       </c>
@@ -8495,7 +8542,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>653</v>
       </c>
@@ -8503,7 +8550,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>653</v>
       </c>
@@ -8511,7 +8558,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>653</v>
       </c>
@@ -8519,7 +8566,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>653</v>
       </c>
@@ -8527,7 +8574,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>653</v>
       </c>
@@ -8535,7 +8582,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>653</v>
       </c>
@@ -8543,7 +8590,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>653</v>
       </c>
@@ -8551,7 +8598,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>653</v>
       </c>
@@ -8559,7 +8606,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>653</v>
       </c>
@@ -8567,7 +8614,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>653</v>
       </c>
@@ -8575,7 +8622,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>653</v>
       </c>
@@ -8583,7 +8630,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>653</v>
       </c>
@@ -8591,7 +8638,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>653</v>
       </c>
@@ -8599,7 +8646,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>653</v>
       </c>
@@ -8607,7 +8654,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>653</v>
       </c>
@@ -8615,7 +8662,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>653</v>
       </c>
@@ -8623,7 +8670,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>653</v>
       </c>
@@ -8631,7 +8678,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>653</v>
       </c>
@@ -8639,7 +8686,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>653</v>
       </c>
@@ -8647,7 +8694,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>653</v>
       </c>
@@ -8655,7 +8702,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>653</v>
       </c>
@@ -8663,7 +8710,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>653</v>
       </c>
@@ -8671,7 +8718,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>653</v>
       </c>
@@ -8679,7 +8726,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>653</v>
       </c>
@@ -8687,7 +8734,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>653</v>
       </c>
@@ -8695,7 +8742,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>653</v>
       </c>
@@ -8703,7 +8750,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>653</v>
       </c>
@@ -8711,7 +8758,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>653</v>
       </c>
@@ -8719,7 +8766,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>653</v>
       </c>
@@ -8727,7 +8774,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>653</v>
       </c>
@@ -8735,7 +8782,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>653</v>
       </c>
@@ -8743,7 +8790,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>653</v>
       </c>
@@ -8751,7 +8798,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>653</v>
       </c>
@@ -8759,7 +8806,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>653</v>
       </c>
@@ -8767,7 +8814,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>653</v>
       </c>
@@ -8775,7 +8822,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>653</v>
       </c>
@@ -8783,7 +8830,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>653</v>
       </c>
@@ -8791,7 +8838,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>653</v>
       </c>
@@ -8799,7 +8846,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>653</v>
       </c>
@@ -8807,7 +8854,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>653</v>
       </c>
@@ -8815,7 +8862,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>653</v>
       </c>
@@ -8823,7 +8870,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>653</v>
       </c>
@@ -8831,7 +8878,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>653</v>
       </c>
@@ -8839,7 +8886,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>653</v>
       </c>
@@ -8847,7 +8894,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>653</v>
       </c>
@@ -8855,7 +8902,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>653</v>
       </c>
@@ -8863,7 +8910,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>653</v>
       </c>
@@ -8871,7 +8918,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>653</v>
       </c>
@@ -8879,7 +8926,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>653</v>
       </c>
@@ -8887,7 +8934,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>653</v>
       </c>
@@ -8895,7 +8942,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>653</v>
       </c>
@@ -8903,7 +8950,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>653</v>
       </c>
@@ -8911,7 +8958,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>653</v>
       </c>
@@ -8919,7 +8966,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>653</v>
       </c>
@@ -8927,7 +8974,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>653</v>
       </c>
@@ -8935,7 +8982,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>653</v>
       </c>
@@ -8943,7 +8990,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>653</v>
       </c>
@@ -8951,7 +8998,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>653</v>
       </c>
@@ -8959,7 +9006,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>653</v>
       </c>
@@ -8967,7 +9014,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>653</v>
       </c>
@@ -8975,7 +9022,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A731" t="s">
         <v>653</v>
       </c>
@@ -8983,7 +9030,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>653</v>
       </c>
@@ -8991,7 +9038,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>653</v>
       </c>
@@ -8999,7 +9046,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>653</v>
       </c>
@@ -9007,7 +9054,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>653</v>
       </c>
@@ -9015,7 +9062,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>653</v>
       </c>
@@ -9023,7 +9070,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>653</v>
       </c>
@@ -9031,7 +9078,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>653</v>
       </c>
@@ -9039,7 +9086,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>653</v>
       </c>
@@ -9047,7 +9094,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>653</v>
       </c>
@@ -9055,7 +9102,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>653</v>
       </c>
@@ -9063,7 +9110,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>653</v>
       </c>
@@ -9071,7 +9118,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>653</v>
       </c>
@@ -9079,7 +9126,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>653</v>
       </c>
@@ -9087,7 +9134,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>653</v>
       </c>
@@ -9095,7 +9142,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>653</v>
       </c>
@@ -9103,7 +9150,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>653</v>
       </c>
@@ -9111,7 +9158,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>653</v>
       </c>
@@ -9119,7 +9166,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>653</v>
       </c>
@@ -9127,7 +9174,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>653</v>
       </c>
@@ -9135,7 +9182,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>653</v>
       </c>
@@ -9143,7 +9190,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>653</v>
       </c>
@@ -9151,7 +9198,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>653</v>
       </c>
@@ -9159,7 +9206,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>653</v>
       </c>
@@ -9167,7 +9214,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>653</v>
       </c>
@@ -9175,7 +9222,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>653</v>
       </c>
@@ -9183,7 +9230,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>653</v>
       </c>
@@ -9191,7 +9238,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>653</v>
       </c>
@@ -9199,7 +9246,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>653</v>
       </c>
@@ -9207,7 +9254,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>653</v>
       </c>
@@ -9215,7 +9262,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>653</v>
       </c>
@@ -9223,7 +9270,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>653</v>
       </c>
@@ -9231,7 +9278,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>653</v>
       </c>
@@ -9239,7 +9286,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>653</v>
       </c>
@@ -9247,7 +9294,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>653</v>
       </c>
@@ -9255,7 +9302,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>653</v>
       </c>
@@ -9263,7 +9310,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>653</v>
       </c>
@@ -9271,7 +9318,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>653</v>
       </c>
@@ -9279,7 +9326,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>653</v>
       </c>
@@ -9287,7 +9334,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>653</v>
       </c>
@@ -9295,7 +9342,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>653</v>
       </c>
@@ -9303,7 +9350,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>653</v>
       </c>
@@ -9311,7 +9358,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>653</v>
       </c>
@@ -9319,7 +9366,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>653</v>
       </c>
@@ -9327,7 +9374,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>653</v>
       </c>
@@ -9335,7 +9382,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>653</v>
       </c>
@@ -9343,7 +9390,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>653</v>
       </c>
@@ -9351,7 +9398,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>653</v>
       </c>
@@ -9359,7 +9406,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>653</v>
       </c>
@@ -9367,7 +9414,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>653</v>
       </c>
@@ -9375,7 +9422,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>653</v>
       </c>
@@ -9383,7 +9430,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>653</v>
       </c>
@@ -9391,7 +9438,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>653</v>
       </c>
@@ -9399,7 +9446,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>653</v>
       </c>
@@ -9407,7 +9454,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>653</v>
       </c>
@@ -9415,7 +9462,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>653</v>
       </c>
@@ -9423,7 +9470,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>653</v>
       </c>
@@ -9431,7 +9478,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>653</v>
       </c>
@@ -9439,7 +9486,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>653</v>
       </c>
@@ -9447,7 +9494,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>653</v>
       </c>
@@ -9455,7 +9502,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>653</v>
       </c>
@@ -9463,7 +9510,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>653</v>
       </c>
@@ -9471,7 +9518,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>653</v>
       </c>
@@ -9479,7 +9526,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>653</v>
       </c>
@@ -9487,7 +9534,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>653</v>
       </c>
@@ -9495,7 +9542,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>653</v>
       </c>
@@ -9503,7 +9550,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>653</v>
       </c>
@@ -9511,7 +9558,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>653</v>
       </c>
@@ -9519,7 +9566,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>653</v>
       </c>
@@ -9527,7 +9574,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>653</v>
       </c>
@@ -9537,8 +9584,11 @@
       <c r="C800" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D800" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>653</v>
       </c>
@@ -9546,7 +9596,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>653</v>
       </c>
@@ -9554,7 +9604,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>653</v>
       </c>
@@ -9562,7 +9612,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>653</v>
       </c>
@@ -9570,7 +9620,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>653</v>
       </c>
@@ -9578,7 +9628,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>653</v>
       </c>
@@ -9586,7 +9636,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>653</v>
       </c>
@@ -9594,7 +9644,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>653</v>
       </c>
@@ -9602,7 +9652,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>653</v>
       </c>
@@ -9610,7 +9660,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>653</v>
       </c>
@@ -9618,7 +9668,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>653</v>
       </c>
@@ -9626,7 +9676,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>653</v>
       </c>
@@ -9634,7 +9684,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>653</v>
       </c>
@@ -9644,8 +9694,11 @@
       <c r="C813" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D813" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>653</v>
       </c>
@@ -9653,7 +9706,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>653</v>
       </c>
@@ -9661,7 +9714,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>653</v>
       </c>
@@ -9669,7 +9722,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>653</v>
       </c>
@@ -9677,7 +9730,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>653</v>
       </c>
@@ -9685,7 +9738,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>653</v>
       </c>
@@ -9693,7 +9746,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>653</v>
       </c>
@@ -9701,7 +9754,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>653</v>
       </c>
@@ -9709,7 +9762,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>653</v>
       </c>
@@ -9717,7 +9770,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>653</v>
       </c>
@@ -9725,7 +9778,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>653</v>
       </c>
@@ -9733,7 +9786,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>834</v>
       </c>
@@ -9741,7 +9794,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>834</v>
       </c>
@@ -9749,7 +9802,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>834</v>
       </c>
@@ -9757,7 +9810,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>834</v>
       </c>
@@ -9765,7 +9818,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>834</v>
       </c>
@@ -9773,7 +9826,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>834</v>
       </c>
@@ -9781,7 +9834,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>834</v>
       </c>
@@ -9789,7 +9842,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>834</v>
       </c>
@@ -9797,7 +9850,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>834</v>
       </c>
@@ -9805,7 +9858,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>834</v>
       </c>
@@ -9813,7 +9866,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>834</v>
       </c>
@@ -9821,7 +9874,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>834</v>
       </c>
@@ -9829,7 +9882,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>834</v>
       </c>
@@ -9837,7 +9890,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>834</v>
       </c>
@@ -9845,7 +9898,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>834</v>
       </c>
@@ -9853,7 +9906,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>834</v>
       </c>
@@ -9861,7 +9914,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>834</v>
       </c>
@@ -9869,7 +9922,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>834</v>
       </c>
@@ -9877,7 +9930,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>834</v>
       </c>
@@ -9885,7 +9938,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>834</v>
       </c>
@@ -9893,7 +9946,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>834</v>
       </c>
@@ -9901,7 +9954,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>834</v>
       </c>
@@ -9909,7 +9962,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>834</v>
       </c>
@@ -9917,7 +9970,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>834</v>
       </c>
@@ -9925,7 +9978,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>834</v>
       </c>
@@ -9933,7 +9986,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>834</v>
       </c>
@@ -9941,7 +9994,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>834</v>
       </c>
@@ -9949,7 +10002,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>834</v>
       </c>
@@ -9957,7 +10010,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>834</v>
       </c>
@@ -9965,7 +10018,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>834</v>
       </c>
@@ -9973,7 +10026,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>834</v>
       </c>
@@ -9981,7 +10034,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>834</v>
       </c>
@@ -9989,7 +10042,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>834</v>
       </c>
@@ -9997,7 +10050,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>834</v>
       </c>
@@ -10005,7 +10058,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>834</v>
       </c>
@@ -10013,7 +10066,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>834</v>
       </c>
@@ -10021,7 +10074,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>834</v>
       </c>
@@ -10029,7 +10082,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>834</v>
       </c>
@@ -10037,7 +10090,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>834</v>
       </c>
@@ -10045,7 +10098,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>834</v>
       </c>
@@ -10053,7 +10106,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>834</v>
       </c>
@@ -10061,7 +10114,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>834</v>
       </c>
@@ -10069,7 +10122,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>834</v>
       </c>
@@ -10077,7 +10130,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>834</v>
       </c>
@@ -10085,7 +10138,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>834</v>
       </c>
@@ -10093,7 +10146,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>834</v>
       </c>
@@ -10101,7 +10154,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>834</v>
       </c>
@@ -10109,7 +10162,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>834</v>
       </c>
@@ -10117,7 +10170,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>834</v>
       </c>
@@ -10125,7 +10178,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>834</v>
       </c>
@@ -10133,7 +10186,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>834</v>
       </c>
@@ -10141,7 +10194,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>834</v>
       </c>
@@ -10149,7 +10202,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>834</v>
       </c>
@@ -10157,7 +10210,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>834</v>
       </c>
@@ -10165,7 +10218,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>834</v>
       </c>
@@ -10173,7 +10226,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>834</v>
       </c>
@@ -10181,7 +10234,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>834</v>
       </c>
@@ -10190,7 +10243,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C881" xr:uid="{C6D71840-BF31-48E0-8DD3-E6430A99489B}"/>
+  <autoFilter ref="A1:D881" xr:uid="{BF2CDFDA-3CC0-4E62-B210-27CF275B3072}">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sli_measures.xlsx
+++ b/sli_measures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa0eda03202f8011/BI/Repo/asc-localities-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9C1A0DE-EE1C-439E-83F9-F7102A1DD989}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88912322-F84B-49D6-8720-E610BD2A6800}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="-108" windowWidth="22704" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57120" yWindow="-120" windowWidth="28440" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3105,7 +3105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D886" sqref="D886"/>
+      <selection pane="bottomLeft" activeCell="B889" sqref="B889"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8285,7 +8285,7 @@
         <v>892</v>
       </c>
       <c r="D639" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="640" spans="1:4" x14ac:dyDescent="0.3">

--- a/sli_measures.xlsx
+++ b/sli_measures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa0eda03202f8011/BI/Repo/asc-localities-insight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88912322-F84B-49D6-8720-E610BD2A6800}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_5E597DCC8F79A8D366075C52F37BD272AA4CE64B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E8FF181-3F4A-4783-9099-8B92E90FD042}"/>
   <bookViews>
     <workbookView xWindow="-57120" yWindow="-120" windowWidth="28440" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$881</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$881</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="897">
   <si>
     <t>theme</t>
   </si>
@@ -2710,10 +2710,10 @@
     <t>percentage</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>small percentage</t>
+    <t>decimals</t>
+  </si>
+  <si>
+    <t>numeric</t>
   </si>
 </sst>
 </file>
@@ -3101,11 +3101,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D881"/>
+  <dimension ref="A1:E881"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B889" sqref="B889"/>
+      <selection pane="bottomLeft" activeCell="E890" sqref="E890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3114,9 +3114,10 @@
     <col min="2" max="2" width="133.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,8 +3130,11 @@
       <c r="D1" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3138,7 +3142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3170,7 +3174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3178,7 +3182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -3194,7 +3198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3202,7 +3206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3226,7 +3230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3238,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3242,7 +3246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3394,7 +3398,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -3402,7 +3406,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>3</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -3426,7 +3430,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>3</v>
       </c>
@@ -3447,8 +3451,11 @@
       <c r="D40" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -3456,7 +3463,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -3464,7 +3471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
@@ -3472,7 +3479,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -3480,7 +3487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -3488,7 +3495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>3</v>
       </c>
@@ -3496,7 +3503,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -3504,7 +3511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -3768,7 +3775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>3</v>
       </c>
@@ -3776,7 +3783,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -3784,7 +3791,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>3</v>
       </c>
@@ -3792,7 +3799,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3800,7 +3807,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>3</v>
       </c>
@@ -3808,7 +3815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>3</v>
       </c>
@@ -3816,7 +3823,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>3</v>
       </c>
@@ -3824,7 +3831,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>3</v>
       </c>
@@ -3832,7 +3839,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -3840,7 +3847,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>3</v>
       </c>
@@ -3853,8 +3860,11 @@
       <c r="D90" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>3</v>
       </c>
@@ -3862,7 +3872,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>3</v>
       </c>
@@ -3870,7 +3880,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>3</v>
       </c>
@@ -3878,7 +3888,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>3</v>
       </c>
@@ -3891,8 +3901,11 @@
       <c r="D94" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>3</v>
       </c>
@@ -3900,7 +3913,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>3</v>
       </c>
@@ -4420,7 +4433,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>148</v>
       </c>
@@ -4428,7 +4441,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>148</v>
       </c>
@@ -4436,7 +4449,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>148</v>
       </c>
@@ -4444,7 +4457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>148</v>
       </c>
@@ -4452,7 +4465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>148</v>
       </c>
@@ -4460,7 +4473,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>148</v>
       </c>
@@ -4468,7 +4481,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>148</v>
       </c>
@@ -4476,7 +4489,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>148</v>
       </c>
@@ -4484,7 +4497,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>148</v>
       </c>
@@ -4492,7 +4505,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>148</v>
       </c>
@@ -4500,7 +4513,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>148</v>
       </c>
@@ -4508,7 +4521,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>148</v>
       </c>
@@ -4516,7 +4529,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>148</v>
       </c>
@@ -4524,7 +4537,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>148</v>
       </c>
@@ -4532,7 +4545,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>148</v>
       </c>
@@ -4543,10 +4556,13 @@
         <v>892</v>
       </c>
       <c r="D175" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>148</v>
       </c>
@@ -4557,7 +4573,10 @@
         <v>892</v>
       </c>
       <c r="D176" t="s">
-        <v>895</v>
+        <v>896</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -7376,7 +7395,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>526</v>
       </c>
@@ -7384,7 +7403,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>526</v>
       </c>
@@ -7392,7 +7411,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>526</v>
       </c>
@@ -7400,7 +7419,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>526</v>
       </c>
@@ -7408,7 +7427,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>526</v>
       </c>
@@ -7416,7 +7435,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>526</v>
       </c>
@@ -7427,10 +7446,13 @@
         <v>892</v>
       </c>
       <c r="D534" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+      <c r="E534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>526</v>
       </c>
@@ -7438,7 +7460,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>526</v>
       </c>
@@ -7446,7 +7468,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>526</v>
       </c>
@@ -7454,7 +7476,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>526</v>
       </c>
@@ -7462,7 +7484,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>526</v>
       </c>
@@ -7470,7 +7492,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>526</v>
       </c>
@@ -7478,7 +7500,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>526</v>
       </c>
@@ -7486,7 +7508,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>526</v>
       </c>
@@ -7494,7 +7516,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>526</v>
       </c>
@@ -7502,7 +7524,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>526</v>
       </c>
@@ -7766,7 +7788,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>526</v>
       </c>
@@ -7774,7 +7796,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>526</v>
       </c>
@@ -7782,7 +7804,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>526</v>
       </c>
@@ -7790,7 +7812,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>526</v>
       </c>
@@ -7798,7 +7820,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>526</v>
       </c>
@@ -7806,7 +7828,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>526</v>
       </c>
@@ -7814,7 +7836,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="583" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>526</v>
       </c>
@@ -7822,7 +7844,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>526</v>
       </c>
@@ -7830,7 +7852,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>526</v>
       </c>
@@ -7838,7 +7860,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>526</v>
       </c>
@@ -7846,7 +7868,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>526</v>
       </c>
@@ -7857,10 +7879,13 @@
         <v>892</v>
       </c>
       <c r="D587" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+      <c r="E587">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>526</v>
       </c>
@@ -7868,7 +7893,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>526</v>
       </c>
@@ -7876,7 +7901,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>526</v>
       </c>
@@ -7884,7 +7909,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>526</v>
       </c>
@@ -7892,7 +7917,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>526</v>
       </c>
@@ -7900,7 +7925,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>526</v>
       </c>
@@ -7908,7 +7933,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>526</v>
       </c>
@@ -7916,7 +7941,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>526</v>
       </c>
@@ -7924,7 +7949,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="596" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>526</v>
       </c>
@@ -7932,7 +7957,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>526</v>
       </c>
@@ -7940,7 +7965,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>526</v>
       </c>
@@ -7948,7 +7973,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>526</v>
       </c>
@@ -7956,7 +7981,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>526</v>
       </c>
@@ -7964,7 +7989,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>526</v>
       </c>
@@ -7972,7 +7997,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>526</v>
       </c>
@@ -7980,7 +8005,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>526</v>
       </c>
@@ -7988,7 +8013,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>526</v>
       </c>
@@ -7996,7 +8021,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>526</v>
       </c>
@@ -8009,8 +8034,11 @@
       <c r="D605" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>526</v>
       </c>
@@ -8018,7 +8046,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>526</v>
       </c>
@@ -8026,7 +8054,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>526</v>
       </c>
@@ -8162,7 +8190,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>526</v>
       </c>
@@ -8170,7 +8198,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>526</v>
       </c>
@@ -8178,7 +8206,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>526</v>
       </c>
@@ -8186,7 +8214,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>526</v>
       </c>
@@ -8194,7 +8222,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>526</v>
       </c>
@@ -8202,7 +8230,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>526</v>
       </c>
@@ -8210,7 +8238,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>526</v>
       </c>
@@ -8218,7 +8246,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>526</v>
       </c>
@@ -8226,7 +8254,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>526</v>
       </c>
@@ -8234,7 +8262,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>526</v>
       </c>
@@ -8242,7 +8270,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>526</v>
       </c>
@@ -8250,7 +8278,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>526</v>
       </c>
@@ -8258,7 +8286,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>526</v>
       </c>
@@ -8266,7 +8294,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>526</v>
       </c>
@@ -8274,7 +8302,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>526</v>
       </c>
@@ -8285,10 +8313,13 @@
         <v>892</v>
       </c>
       <c r="D639" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+        <v>894</v>
+      </c>
+      <c r="E639">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>526</v>
       </c>
@@ -8299,7 +8330,10 @@
         <v>892</v>
       </c>
       <c r="D640" t="s">
-        <v>895</v>
+        <v>896</v>
+      </c>
+      <c r="E640">
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
@@ -9454,7 +9488,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>653</v>
       </c>
@@ -9462,7 +9496,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>653</v>
       </c>
@@ -9470,7 +9504,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>653</v>
       </c>
@@ -9478,7 +9512,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>653</v>
       </c>
@@ -9486,7 +9520,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>653</v>
       </c>
@@ -9494,7 +9528,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>653</v>
       </c>
@@ -9502,7 +9536,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="791" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>653</v>
       </c>
@@ -9510,7 +9544,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="792" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>653</v>
       </c>
@@ -9518,7 +9552,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="793" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>653</v>
       </c>
@@ -9526,7 +9560,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="794" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>653</v>
       </c>
@@ -9534,7 +9568,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="795" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>653</v>
       </c>
@@ -9542,7 +9576,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="796" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>653</v>
       </c>
@@ -9550,7 +9584,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="797" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>653</v>
       </c>
@@ -9558,7 +9592,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="798" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>653</v>
       </c>
@@ -9566,7 +9600,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="799" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>653</v>
       </c>
@@ -9574,7 +9608,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>653</v>
       </c>
@@ -9587,8 +9621,11 @@
       <c r="D800" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="801" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>653</v>
       </c>
@@ -9596,7 +9633,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="802" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>653</v>
       </c>
@@ -9604,7 +9641,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="803" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>653</v>
       </c>
@@ -9612,7 +9649,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="804" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>653</v>
       </c>
@@ -9620,7 +9657,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="805" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>653</v>
       </c>
@@ -9628,7 +9665,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="806" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>653</v>
       </c>
@@ -9636,7 +9673,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="807" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>653</v>
       </c>
@@ -9644,7 +9681,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="808" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>653</v>
       </c>
@@ -9652,7 +9689,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="809" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>653</v>
       </c>
@@ -9660,7 +9697,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="810" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>653</v>
       </c>
@@ -9668,7 +9705,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="811" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>653</v>
       </c>
@@ -9676,7 +9713,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="812" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>653</v>
       </c>
@@ -9684,7 +9721,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>653</v>
       </c>
@@ -9695,10 +9732,13 @@
         <v>892</v>
       </c>
       <c r="D813" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="814" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>896</v>
+      </c>
+      <c r="E813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>653</v>
       </c>
@@ -9706,7 +9746,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="815" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>653</v>
       </c>
@@ -9714,7 +9754,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="816" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>653</v>
       </c>
@@ -10243,7 +10283,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D881" xr:uid="{BF2CDFDA-3CC0-4E62-B210-27CF275B3072}">
+  <autoFilter ref="A1:E881" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
